--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -1851,17 +1851,13 @@
         <v>2004.566666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1965</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
@@ -1896,16 +1892,12 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="K43" t="n">
         <v>1965</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1982,12 +1974,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="K45" t="n">
-        <v>1966</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>1965</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2021,16 +2017,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="K46" t="n">
         <v>1966</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2064,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="K47" t="n">
         <v>1966</v>
@@ -2101,18 +2093,20 @@
         <v>1997.85</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1978</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>1978</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+        <v>1966</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2140,22 +2134,14 @@
         <v>1997.283333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1978</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2169,14 @@
         <v>1996.566666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1978</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2226,17 +2204,13 @@
         <v>1996.15</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1982</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2265,22 +2239,14 @@
         <v>1995.75</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1996</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2274,14 @@
         <v>1995.616666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2351,22 +2309,14 @@
         <v>1995.033333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2400,14 +2350,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2385,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2482,14 +2420,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2490,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2525,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2646,14 +2560,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2687,14 +2595,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2728,14 +2630,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2769,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2700,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2735,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2892,14 +2770,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2933,14 +2805,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2840,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2875,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3056,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3097,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3138,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3179,14 +3015,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +3050,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3261,14 +3085,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3120,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +3155,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +3190,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +3225,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +3260,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3330,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3589,14 +3365,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3400,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3435,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3712,14 +3470,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3753,14 +3505,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3835,14 +3575,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3645,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3958,16 +3680,10 @@
         <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1.010640766902119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3996,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4066,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C2" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E2" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>1145.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2030.033333333333</v>
+        <v>2030.683333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D3" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E3" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F3" t="n">
-        <v>369.2679</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>2029.516666666667</v>
+        <v>2030.033333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D4" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E4" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F4" t="n">
-        <v>30.5321</v>
+        <v>369.2679</v>
       </c>
       <c r="G4" t="n">
-        <v>2029.05</v>
+        <v>2029.516666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C5" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E5" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F5" t="n">
-        <v>35.6001</v>
+        <v>30.5321</v>
       </c>
       <c r="G5" t="n">
-        <v>2028.533333333333</v>
+        <v>2029.05</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C6" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D6" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E6" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F6" t="n">
-        <v>201.6212</v>
+        <v>35.6001</v>
       </c>
       <c r="G6" t="n">
-        <v>2027.966666666667</v>
+        <v>2028.533333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C7" t="n">
         <v>2007</v>
       </c>
       <c r="D7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F7" t="n">
-        <v>1125</v>
+        <v>201.6212</v>
       </c>
       <c r="G7" t="n">
-        <v>2027.4</v>
+        <v>2027.966666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>2008</v>
       </c>
       <c r="C8" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D8" t="n">
         <v>2008</v>
       </c>
       <c r="E8" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F8" t="n">
-        <v>32.7874</v>
+        <v>1125</v>
       </c>
       <c r="G8" t="n">
-        <v>2026.85</v>
+        <v>2027.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>2008</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>32.7874</v>
       </c>
       <c r="G9" t="n">
-        <v>2026.25</v>
+        <v>2026.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>2008</v>
       </c>
       <c r="C10" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D10" t="n">
         <v>2008</v>
       </c>
       <c r="E10" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>2025.683333333333</v>
+        <v>2026.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C11" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D11" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="E11" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>2025.266666666667</v>
+        <v>2025.683333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E12" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="F12" t="n">
-        <v>21.3248</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>2024.716666666667</v>
+        <v>2025.266666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>2007</v>
       </c>
       <c r="F13" t="n">
-        <v>696.9299999999999</v>
+        <v>21.3248</v>
       </c>
       <c r="G13" t="n">
-        <v>2024.166666666667</v>
+        <v>2024.716666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>2007</v>
       </c>
       <c r="F14" t="n">
-        <v>490.7424</v>
+        <v>696.9299999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2024.016666666667</v>
+        <v>2024.166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>2007</v>
       </c>
       <c r="F15" t="n">
-        <v>22.727</v>
+        <v>490.7424</v>
       </c>
       <c r="G15" t="n">
-        <v>2023.75</v>
+        <v>2024.016666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>2007</v>
       </c>
       <c r="F16" t="n">
-        <v>712.3203</v>
+        <v>22.727</v>
       </c>
       <c r="G16" t="n">
-        <v>2023.466666666667</v>
+        <v>2023.75</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>2007</v>
       </c>
       <c r="F17" t="n">
-        <v>151.5662</v>
+        <v>712.3203</v>
       </c>
       <c r="G17" t="n">
-        <v>2023.066666666667</v>
+        <v>2023.466666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C18" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D18" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E18" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F18" t="n">
-        <v>109.6232</v>
+        <v>151.5662</v>
       </c>
       <c r="G18" t="n">
-        <v>2022.6</v>
+        <v>2023.066666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C19" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E19" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="F19" t="n">
-        <v>64.7</v>
+        <v>109.6232</v>
       </c>
       <c r="G19" t="n">
-        <v>2022.15</v>
+        <v>2022.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C20" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="D20" t="n">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E20" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="F20" t="n">
-        <v>106.5129</v>
+        <v>64.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2021.316666666667</v>
+        <v>2022.15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="C21" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D21" t="n">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="E21" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>106.5129</v>
       </c>
       <c r="G21" t="n">
-        <v>2020.283333333333</v>
+        <v>2021.316666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C22" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D22" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E22" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F22" t="n">
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2019.616666666667</v>
+        <v>2020.283333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="C23" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="D23" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="E23" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="F23" t="n">
-        <v>64.7</v>
+        <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2019.383333333333</v>
+        <v>2019.616666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="D24" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="E24" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="F24" t="n">
-        <v>16.8551</v>
+        <v>64.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2018.866666666667</v>
+        <v>2019.383333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="C25" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="D25" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E25" t="n">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="F25" t="n">
-        <v>280000</v>
+        <v>16.8551</v>
       </c>
       <c r="G25" t="n">
-        <v>2018.633333333333</v>
+        <v>2018.866666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C26" t="n">
         <v>2015</v>
@@ -1282,13 +1282,13 @@
         <v>2015</v>
       </c>
       <c r="E26" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="F26" t="n">
-        <v>60000</v>
+        <v>280000</v>
       </c>
       <c r="G26" t="n">
-        <v>2018.466666666667</v>
+        <v>2018.633333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="E27" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="F27" t="n">
-        <v>441.9113</v>
+        <v>60000</v>
       </c>
       <c r="G27" t="n">
-        <v>2017.983333333333</v>
+        <v>2018.466666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="D28" t="n">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="E28" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="F28" t="n">
-        <v>84.06140000000001</v>
+        <v>441.9113</v>
       </c>
       <c r="G28" t="n">
-        <v>2017.516666666667</v>
+        <v>2017.983333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="C29" t="n">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="D29" t="n">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="E29" t="n">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="F29" t="n">
-        <v>36.73</v>
+        <v>84.06140000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>2016.883333333333</v>
+        <v>2017.516666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="C30" t="n">
         <v>1987</v>
       </c>
       <c r="D30" t="n">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E30" t="n">
         <v>1987</v>
       </c>
       <c r="F30" t="n">
-        <v>1613.6082</v>
+        <v>36.73</v>
       </c>
       <c r="G30" t="n">
-        <v>2016.166666666667</v>
+        <v>2016.883333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="D31" t="n">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="E31" t="n">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="F31" t="n">
-        <v>513.7182</v>
+        <v>1613.6082</v>
       </c>
       <c r="G31" t="n">
-        <v>2015.366666666667</v>
+        <v>2016.166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="C32" t="n">
         <v>1980</v>
       </c>
       <c r="D32" t="n">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="E32" t="n">
         <v>1980</v>
       </c>
       <c r="F32" t="n">
-        <v>1126.2884</v>
+        <v>513.7182</v>
       </c>
       <c r="G32" t="n">
-        <v>2014.366666666667</v>
+        <v>2015.366666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="C33" t="n">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="D33" t="n">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="E33" t="n">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>1126.2884</v>
       </c>
       <c r="G33" t="n">
-        <v>2013.45</v>
+        <v>2014.366666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C34" t="n">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="D34" t="n">
-        <v>1990</v>
+        <v>1973</v>
       </c>
       <c r="E34" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F34" t="n">
-        <v>771</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>2013</v>
+        <v>2013.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C35" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D35" t="n">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="E35" t="n">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>771</v>
       </c>
       <c r="G35" t="n">
-        <v>2012.25</v>
+        <v>2013</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="C36" t="n">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="D36" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="E36" t="n">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="F36" t="n">
-        <v>8662.9648</v>
+        <v>0.1</v>
       </c>
       <c r="G36" t="n">
-        <v>2011.4</v>
+        <v>2012.25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="C37" t="n">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D37" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="E37" t="n">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="F37" t="n">
-        <v>46.58</v>
+        <v>8662.9648</v>
       </c>
       <c r="G37" t="n">
-        <v>2010.633333333333</v>
+        <v>2011.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="C38" t="n">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="D38" t="n">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="E38" t="n">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="F38" t="n">
-        <v>22.6533</v>
+        <v>46.58</v>
       </c>
       <c r="G38" t="n">
-        <v>2009.5</v>
+        <v>2010.633333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>1970</v>
       </c>
       <c r="F39" t="n">
-        <v>8.705399999999999</v>
+        <v>22.6533</v>
       </c>
       <c r="G39" t="n">
-        <v>2008.316666666667</v>
+        <v>2009.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>1970</v>
       </c>
       <c r="F40" t="n">
-        <v>31.3003</v>
+        <v>8.705399999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>2007.066666666667</v>
+        <v>2008.316666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="C41" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="D41" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="E41" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>31.3003</v>
       </c>
       <c r="G41" t="n">
-        <v>2005.816666666667</v>
+        <v>2007.066666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1965</v>
       </c>
       <c r="F42" t="n">
-        <v>12.4688</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>2004.566666666667</v>
+        <v>2005.816666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,35 +1868,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="C43" t="n">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="D43" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="E43" t="n">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="F43" t="n">
-        <v>106.0358</v>
+        <v>12.4688</v>
       </c>
       <c r="G43" t="n">
-        <v>2003.416666666667</v>
+        <v>2004.566666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1965</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1907,40 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C44" t="n">
         <v>1971</v>
       </c>
       <c r="D44" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E44" t="n">
         <v>1971</v>
       </c>
       <c r="F44" t="n">
-        <v>63.44</v>
+        <v>106.0358</v>
       </c>
       <c r="G44" t="n">
-        <v>2002.216666666667</v>
+        <v>2003.416666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1965</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,40 +1938,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="C45" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="D45" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="E45" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>63.44</v>
       </c>
       <c r="G45" t="n">
-        <v>2000.95</v>
+        <v>2002.216666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1965</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1993,35 +1973,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="D46" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="E46" t="n">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="F46" t="n">
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1999.6</v>
+        <v>2000.95</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1966</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1966</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2032,40 +2008,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="C47" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="D47" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="E47" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="F47" t="n">
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>1998.666666666667</v>
+        <v>1999.6</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1966</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2075,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C48" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="D48" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="E48" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="F48" t="n">
-        <v>80.2941</v>
+        <v>0.1</v>
       </c>
       <c r="G48" t="n">
-        <v>1997.85</v>
+        <v>1998.666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2099,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1966</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="C49" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D49" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E49" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>80.2941</v>
       </c>
       <c r="G49" t="n">
-        <v>1997.283333333333</v>
+        <v>1997.85</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2157,16 +2119,16 @@
         <v>1982</v>
       </c>
       <c r="D50" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E50" t="n">
         <v>1982</v>
       </c>
       <c r="F50" t="n">
-        <v>321.2942</v>
+        <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>1996.566666666667</v>
+        <v>1997.283333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2192,16 +2154,16 @@
         <v>1982</v>
       </c>
       <c r="D51" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E51" t="n">
         <v>1982</v>
       </c>
       <c r="F51" t="n">
-        <v>97.82989999999999</v>
+        <v>321.2942</v>
       </c>
       <c r="G51" t="n">
-        <v>1996.15</v>
+        <v>1996.566666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2221,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="C52" t="n">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="D52" t="n">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="E52" t="n">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>97.82989999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>1995.75</v>
+        <v>1996.15</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2256,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="C53" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="D53" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E53" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>1995.616666666667</v>
+        <v>1995.75</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2294,19 +2256,19 @@
         <v>1993</v>
       </c>
       <c r="C54" t="n">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="D54" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E54" t="n">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="F54" t="n">
-        <v>2299.9306</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>1995.033333333333</v>
+        <v>1995.616666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2326,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C55" t="n">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="D55" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="E55" t="n">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="F55" t="n">
-        <v>17.6</v>
+        <v>2299.9306</v>
       </c>
       <c r="G55" t="n">
-        <v>1994.516666666667</v>
+        <v>1995.033333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2361,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="C56" t="n">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="D56" t="n">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="E56" t="n">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="F56" t="n">
-        <v>393.2961</v>
+        <v>17.6</v>
       </c>
       <c r="G56" t="n">
-        <v>1993.916666666667</v>
+        <v>1994.516666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2396,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C57" t="n">
         <v>1985</v>
       </c>
       <c r="D57" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E57" t="n">
         <v>1985</v>
       </c>
       <c r="F57" t="n">
-        <v>169.8745</v>
+        <v>393.2961</v>
       </c>
       <c r="G57" t="n">
-        <v>1993.25</v>
+        <v>1993.916666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2431,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="C58" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="D58" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E58" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="F58" t="n">
-        <v>0.11</v>
+        <v>169.8745</v>
       </c>
       <c r="G58" t="n">
-        <v>1992.883333333333</v>
+        <v>1993.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2466,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C59" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="D59" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="E59" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="F59" t="n">
         <v>0.11</v>
       </c>
       <c r="G59" t="n">
-        <v>1992.583333333333</v>
+        <v>1992.883333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2501,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C60" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D60" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E60" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F60" t="n">
-        <v>955</v>
+        <v>0.11</v>
       </c>
       <c r="G60" t="n">
-        <v>1992.533333333333</v>
+        <v>1992.583333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2536,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C61" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D61" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E61" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F61" t="n">
-        <v>199.3106</v>
+        <v>955</v>
       </c>
       <c r="G61" t="n">
-        <v>1992.45</v>
+        <v>1992.533333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2571,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C62" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D62" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E62" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F62" t="n">
-        <v>160</v>
+        <v>199.3106</v>
       </c>
       <c r="G62" t="n">
-        <v>1992.383333333333</v>
+        <v>1992.45</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2606,19 +2568,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C63" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D63" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E63" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>160</v>
       </c>
       <c r="G63" t="n">
         <v>1992.383333333333</v>
@@ -2627,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2641,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C64" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D64" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E64" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F64" t="n">
-        <v>52.1796</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>1992.316666666667</v>
+        <v>1992.383333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2676,19 +2638,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C65" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D65" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E65" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F65" t="n">
-        <v>257.575</v>
+        <v>52.1796</v>
       </c>
       <c r="G65" t="n">
         <v>1992.316666666667</v>
@@ -2723,10 +2685,10 @@
         <v>2010</v>
       </c>
       <c r="F66" t="n">
-        <v>276.7652</v>
+        <v>257.575</v>
       </c>
       <c r="G66" t="n">
-        <v>1992.366666666667</v>
+        <v>1992.316666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2758,10 +2720,10 @@
         <v>2010</v>
       </c>
       <c r="F67" t="n">
-        <v>57.228</v>
+        <v>276.7652</v>
       </c>
       <c r="G67" t="n">
-        <v>1992.416666666667</v>
+        <v>1992.366666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2781,28 +2743,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="C68" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="D68" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="E68" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1</v>
+        <v>57.228</v>
       </c>
       <c r="G68" t="n">
-        <v>1992.25</v>
+        <v>1992.416666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2816,28 +2778,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="C69" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D69" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E69" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="F69" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>1992.283333333333</v>
+        <v>1992.25</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2851,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="C70" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="E70" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G70" t="n">
-        <v>1992.133333333333</v>
+        <v>1992.283333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2886,28 +2848,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C71" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D71" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E71" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="F71" t="n">
-        <v>387.7672</v>
+        <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>1992</v>
+        <v>1992.133333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2930,10 +2892,10 @@
         <v>2007</v>
       </c>
       <c r="E72" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="F72" t="n">
-        <v>89574.5232</v>
+        <v>387.7672</v>
       </c>
       <c r="G72" t="n">
         <v>1992</v>
@@ -2968,7 +2930,7 @@
         <v>1998</v>
       </c>
       <c r="F73" t="n">
-        <v>65920.624</v>
+        <v>89574.5232</v>
       </c>
       <c r="G73" t="n">
         <v>1992</v>
@@ -2991,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="C74" t="n">
         <v>2007</v>
@@ -3000,10 +2962,10 @@
         <v>2007</v>
       </c>
       <c r="E74" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F74" t="n">
-        <v>25310.412</v>
+        <v>65920.624</v>
       </c>
       <c r="G74" t="n">
         <v>1992</v>
@@ -3026,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C75" t="n">
         <v>2007</v>
@@ -3035,10 +2997,10 @@
         <v>2007</v>
       </c>
       <c r="E75" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F75" t="n">
-        <v>79206.4752</v>
+        <v>25310.412</v>
       </c>
       <c r="G75" t="n">
         <v>1992</v>
@@ -3070,10 +3032,10 @@
         <v>2007</v>
       </c>
       <c r="E76" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F76" t="n">
-        <v>79802.0096</v>
+        <v>79206.4752</v>
       </c>
       <c r="G76" t="n">
         <v>1992</v>
@@ -3102,13 +3064,13 @@
         <v>2007</v>
       </c>
       <c r="D77" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E77" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F77" t="n">
-        <v>78823.0252</v>
+        <v>79802.0096</v>
       </c>
       <c r="G77" t="n">
         <v>1992</v>
@@ -3134,19 +3096,19 @@
         <v>2007</v>
       </c>
       <c r="C78" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D78" t="n">
-        <v>2056</v>
+        <v>2008</v>
       </c>
       <c r="E78" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F78" t="n">
-        <v>9311.3938</v>
+        <v>78823.0252</v>
       </c>
       <c r="G78" t="n">
-        <v>1991.85</v>
+        <v>1992</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3166,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C79" t="n">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="D79" t="n">
-        <v>2016</v>
+        <v>2056</v>
       </c>
       <c r="E79" t="n">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1</v>
+        <v>9311.3938</v>
       </c>
       <c r="G79" t="n">
-        <v>1992.066666666667</v>
+        <v>1991.85</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3201,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C80" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="D80" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E80" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="F80" t="n">
-        <v>114.641</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>1992.283333333333</v>
+        <v>1992.066666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3236,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C81" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D81" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="E81" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F81" t="n">
-        <v>58.0102</v>
+        <v>114.641</v>
       </c>
       <c r="G81" t="n">
-        <v>1992.65</v>
+        <v>1992.283333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3283,10 +3245,10 @@
         <v>2013</v>
       </c>
       <c r="F82" t="n">
-        <v>85.79179999999999</v>
+        <v>58.0102</v>
       </c>
       <c r="G82" t="n">
-        <v>1993.033333333333</v>
+        <v>1992.65</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3318,10 +3280,10 @@
         <v>2013</v>
       </c>
       <c r="F83" t="n">
-        <v>271.61</v>
+        <v>85.79179999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1993.083333333333</v>
+        <v>1993.033333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3353,10 +3315,10 @@
         <v>2013</v>
       </c>
       <c r="F84" t="n">
-        <v>340</v>
+        <v>271.61</v>
       </c>
       <c r="G84" t="n">
-        <v>1993.416666666667</v>
+        <v>1993.083333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3388,10 +3350,10 @@
         <v>2013</v>
       </c>
       <c r="F85" t="n">
-        <v>90.98999999999999</v>
+        <v>340</v>
       </c>
       <c r="G85" t="n">
-        <v>1993.383333333333</v>
+        <v>1993.416666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3423,10 +3385,10 @@
         <v>2013</v>
       </c>
       <c r="F86" t="n">
-        <v>77.37</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>1993.35</v>
+        <v>1993.383333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3446,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C87" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D87" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E87" t="n">
         <v>2013</v>
       </c>
       <c r="F87" t="n">
-        <v>62.7899</v>
+        <v>77.37</v>
       </c>
       <c r="G87" t="n">
-        <v>1993.633333333333</v>
+        <v>1993.35</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3481,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C88" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D88" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E88" t="n">
         <v>2013</v>
       </c>
       <c r="F88" t="n">
-        <v>68.66</v>
+        <v>62.7899</v>
       </c>
       <c r="G88" t="n">
-        <v>1993.8</v>
+        <v>1993.633333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3516,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E89" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F89" t="n">
-        <v>168.6433</v>
+        <v>68.66</v>
       </c>
       <c r="G89" t="n">
-        <v>1994.25</v>
+        <v>1993.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3551,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2052</v>
+        <v>2015</v>
       </c>
       <c r="C90" t="n">
-        <v>2037</v>
+        <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>2052</v>
+        <v>2015</v>
       </c>
       <c r="E90" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F90" t="n">
-        <v>397.1833</v>
+        <v>168.6433</v>
       </c>
       <c r="G90" t="n">
-        <v>1995.083333333333</v>
+        <v>1994.25</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3586,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="C91" t="n">
-        <v>2065</v>
+        <v>2037</v>
       </c>
       <c r="D91" t="n">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="E91" t="n">
-        <v>2065</v>
+        <v>2013</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1</v>
+        <v>397.1833</v>
       </c>
       <c r="G91" t="n">
-        <v>1996.5</v>
+        <v>1995.083333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3621,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2013</v>
+        <v>2065</v>
       </c>
       <c r="C92" t="n">
-        <v>2013</v>
+        <v>2065</v>
       </c>
       <c r="D92" t="n">
-        <v>2013</v>
+        <v>2065</v>
       </c>
       <c r="E92" t="n">
-        <v>2013</v>
+        <v>2065</v>
       </c>
       <c r="F92" t="n">
-        <v>30.1083</v>
+        <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>1997.05</v>
+        <v>1996.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,28 +3618,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C93" t="n">
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E93" t="n">
         <v>2013</v>
       </c>
       <c r="F93" t="n">
-        <v>306.04</v>
+        <v>30.1083</v>
       </c>
       <c r="G93" t="n">
-        <v>1997.716666666667</v>
+        <v>1997.05</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3691,28 +3653,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="D94" t="n">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="E94" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1</v>
+        <v>306.04</v>
       </c>
       <c r="G94" t="n">
-        <v>1998.033333333333</v>
+        <v>1997.716666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3726,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="C95" t="n">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="D95" t="n">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="E95" t="n">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1999.05</v>
+        <v>1998.033333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3761,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1998</v>
+        <v>2040</v>
       </c>
       <c r="C96" t="n">
-        <v>1998</v>
+        <v>2040</v>
       </c>
       <c r="D96" t="n">
-        <v>1998</v>
+        <v>2040</v>
       </c>
       <c r="E96" t="n">
-        <v>1998</v>
+        <v>2040</v>
       </c>
       <c r="F96" t="n">
-        <v>16.9515</v>
+        <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>1999.466666666667</v>
+        <v>1999.05</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3796,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C97" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D97" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E97" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>16.9515</v>
       </c>
       <c r="G97" t="n">
-        <v>1999.933333333333</v>
+        <v>1999.466666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3831,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="C98" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="D98" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E98" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="F98" t="n">
-        <v>149.768</v>
+        <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>2000.35</v>
+        <v>1999.933333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3878,10 +3840,10 @@
         <v>1995</v>
       </c>
       <c r="F99" t="n">
-        <v>36.6586</v>
+        <v>149.768</v>
       </c>
       <c r="G99" t="n">
-        <v>2000.766666666667</v>
+        <v>2000.35</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3904,19 +3866,19 @@
         <v>1995</v>
       </c>
       <c r="C100" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D100" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E100" t="n">
         <v>1995</v>
       </c>
       <c r="F100" t="n">
-        <v>280.52</v>
+        <v>36.6586</v>
       </c>
       <c r="G100" t="n">
-        <v>2001.2</v>
+        <v>2000.766666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3939,19 +3901,19 @@
         <v>1995</v>
       </c>
       <c r="C101" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D101" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E101" t="n">
         <v>1995</v>
       </c>
       <c r="F101" t="n">
-        <v>59.7963</v>
+        <v>280.52</v>
       </c>
       <c r="G101" t="n">
-        <v>2001.7</v>
+        <v>2001.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3983,10 +3945,10 @@
         <v>1995</v>
       </c>
       <c r="F102" t="n">
-        <v>192.9122</v>
+        <v>59.7963</v>
       </c>
       <c r="G102" t="n">
-        <v>2002.2</v>
+        <v>2001.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4018,10 +3980,10 @@
         <v>1995</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0001</v>
+        <v>192.9122</v>
       </c>
       <c r="G103" t="n">
-        <v>2002.6</v>
+        <v>2002.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4041,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C104" t="n">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="D104" t="n">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="E104" t="n">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="F104" t="n">
-        <v>0.12</v>
+        <v>0.0001</v>
       </c>
       <c r="G104" t="n">
-        <v>2003.35</v>
+        <v>2002.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4076,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C105" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E105" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="F105" t="n">
-        <v>118.8097</v>
+        <v>0.12</v>
       </c>
       <c r="G105" t="n">
-        <v>2004.033333333333</v>
+        <v>2003.35</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C106" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D106" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E106" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F106" t="n">
-        <v>1254.0603</v>
+        <v>118.8097</v>
       </c>
       <c r="G106" t="n">
-        <v>2004.7</v>
+        <v>2004.033333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4149,19 +4111,19 @@
         <v>2011</v>
       </c>
       <c r="C107" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D107" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E107" t="n">
         <v>2011</v>
       </c>
-      <c r="E107" t="n">
-        <v>1997</v>
-      </c>
       <c r="F107" t="n">
-        <v>682.5657</v>
+        <v>1254.0603</v>
       </c>
       <c r="G107" t="n">
-        <v>2005.133333333333</v>
+        <v>2004.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4181,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="C108" t="n">
         <v>2006</v>
       </c>
       <c r="D108" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E108" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0001</v>
+        <v>682.5657</v>
       </c>
       <c r="G108" t="n">
-        <v>2005.6</v>
+        <v>2005.133333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4216,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C109" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D109" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="E109" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
       <c r="G109" t="n">
-        <v>2006.233333333333</v>
+        <v>2005.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4251,31 +4213,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="C110" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="D110" t="n">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="E110" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="F110" t="n">
-        <v>35.1966</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>2006.5</v>
+        <v>2006.233333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2006</v>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4286,22 +4252,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C111" t="n">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="D111" t="n">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E111" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="F111" t="n">
-        <v>271.11</v>
+        <v>35.1966</v>
       </c>
       <c r="G111" t="n">
-        <v>2007</v>
+        <v>2006.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4310,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4321,22 +4293,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C112" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D112" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="E112" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F112" t="n">
-        <v>23.5844</v>
+        <v>271.11</v>
       </c>
       <c r="G112" t="n">
-        <v>2007.083333333333</v>
+        <v>2007</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4345,8 +4317,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="C113" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D113" t="n">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="E113" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F113" t="n">
-        <v>29.9432</v>
+        <v>23.5844</v>
       </c>
       <c r="G113" t="n">
-        <v>2007.2</v>
+        <v>2007.083333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4380,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4391,22 +4375,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C114" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E114" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>29.9432</v>
       </c>
       <c r="G114" t="n">
-        <v>2007.733333333333</v>
+        <v>2007.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4415,8 +4399,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4416,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C115" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="E115" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="F115" t="n">
-        <v>33.559</v>
+        <v>0.1</v>
       </c>
       <c r="G115" t="n">
-        <v>2007.883333333333</v>
+        <v>2007.733333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4450,8 +4440,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4461,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C116" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D116" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="E116" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1</v>
+        <v>33.559</v>
       </c>
       <c r="G116" t="n">
-        <v>2008.4</v>
+        <v>2007.883333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4485,8 +4481,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4496,33 +4498,80 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2008.4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>1989</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>1989</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>1989</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>1989</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>18.3752</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>2008.466666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1145.4</v>
       </c>
       <c r="G2" t="n">
+        <v>2018.333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>2030.683333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>40</v>
       </c>
       <c r="G3" t="n">
+        <v>2016.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>2030.033333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>369.2679</v>
       </c>
       <c r="G4" t="n">
+        <v>2015.666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>2029.516666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>30.5321</v>
       </c>
       <c r="G5" t="n">
+        <v>2015.466666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>2029.05</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>35.6001</v>
       </c>
       <c r="G6" t="n">
+        <v>2014.466666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>2028.533333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>201.6212</v>
       </c>
       <c r="G7" t="n">
+        <v>2014.466666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>2027.966666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1125</v>
       </c>
       <c r="G8" t="n">
+        <v>2013.6</v>
+      </c>
+      <c r="H8" t="n">
         <v>2027.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>32.7874</v>
       </c>
       <c r="G9" t="n">
+        <v>2014.066666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>2026.85</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
+        <v>2013.333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>2026.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>2012.333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>2025.683333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
+        <v>2011.933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>2025.266666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>21.3248</v>
       </c>
       <c r="G13" t="n">
+        <v>2010.733333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>2024.716666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>696.9299999999999</v>
       </c>
       <c r="G14" t="n">
+        <v>2009.866666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>2024.166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>490.7424</v>
       </c>
       <c r="G15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H15" t="n">
         <v>2024.016666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>22.727</v>
       </c>
       <c r="G16" t="n">
+        <v>2009.066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>2023.75</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>712.3203</v>
       </c>
       <c r="G17" t="n">
+        <v>2008.866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>2023.466666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>151.5662</v>
       </c>
       <c r="G18" t="n">
+        <v>2008.466666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>2023.066666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>109.6232</v>
       </c>
       <c r="G19" t="n">
+        <v>2008.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>2022.6</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>64.7</v>
       </c>
       <c r="G20" t="n">
+        <v>2008.133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>2022.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>106.5129</v>
       </c>
       <c r="G21" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H21" t="n">
         <v>2021.316666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
+        <v>2005.933333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>2020.283333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>0.1</v>
       </c>
       <c r="G23" t="n">
+        <v>2004.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>2019.616666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>64.7</v>
       </c>
       <c r="G24" t="n">
+        <v>2004.933333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>2019.383333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>16.8551</v>
       </c>
       <c r="G25" t="n">
+        <v>2003.933333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>2018.866666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>280000</v>
       </c>
       <c r="G26" t="n">
+        <v>2004.466666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>2018.633333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>60000</v>
       </c>
       <c r="G27" t="n">
+        <v>2004.466666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>2018.466666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>441.9113</v>
       </c>
       <c r="G28" t="n">
+        <v>2003.933333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>2017.983333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>84.06140000000001</v>
       </c>
       <c r="G29" t="n">
+        <v>2003.666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>2017.516666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>36.73</v>
       </c>
       <c r="G30" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>2016.883333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1613.6082</v>
       </c>
       <c r="G31" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H31" t="n">
         <v>2016.166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>513.7182</v>
       </c>
       <c r="G32" t="n">
+        <v>1999.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>2015.366666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1126.2884</v>
       </c>
       <c r="G33" t="n">
+        <v>1997.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>2014.366666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.1</v>
       </c>
       <c r="G34" t="n">
+        <v>1994.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>2013.45</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>771</v>
       </c>
       <c r="G35" t="n">
+        <v>1993.066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>2013</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>0.1</v>
       </c>
       <c r="G36" t="n">
+        <v>1992.133333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>2012.25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8662.9648</v>
       </c>
       <c r="G37" t="n">
+        <v>1990.933333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>2011.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>46.58</v>
       </c>
       <c r="G38" t="n">
+        <v>1989.933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>2010.633333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>22.6533</v>
       </c>
       <c r="G39" t="n">
+        <v>1987.266666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>2009.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>8.705399999999999</v>
       </c>
       <c r="G40" t="n">
+        <v>1985.733333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>2008.316666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>31.3003</v>
       </c>
       <c r="G41" t="n">
+        <v>1982.733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>2007.066666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>0.1</v>
       </c>
       <c r="G42" t="n">
+        <v>1979.4</v>
+      </c>
+      <c r="H42" t="n">
         <v>2005.816666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>12.4688</v>
       </c>
       <c r="G43" t="n">
+        <v>1977.133333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>2004.566666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,25 @@
         <v>106.0358</v>
       </c>
       <c r="G44" t="n">
+        <v>1975</v>
+      </c>
+      <c r="H44" t="n">
         <v>2003.416666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1965</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1965</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2091,29 @@
         <v>63.44</v>
       </c>
       <c r="G45" t="n">
+        <v>1973.933333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>2002.216666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1971</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2137,29 @@
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
+        <v>1972.533333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>2000.95</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1971</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1965</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2183,25 @@
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
+        <v>1972</v>
+      </c>
+      <c r="H47" t="n">
         <v>1999.6</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1966</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1966</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2225,29 @@
         <v>0.1</v>
       </c>
       <c r="G48" t="n">
+        <v>1972</v>
+      </c>
+      <c r="H48" t="n">
         <v>1998.666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1972</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1966</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2271,29 @@
         <v>80.2941</v>
       </c>
       <c r="G49" t="n">
+        <v>1972.333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1997.85</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1980</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1966</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2317,25 @@
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
+        <v>1972.466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1997.283333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1978</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1978</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2359,29 @@
         <v>321.2942</v>
       </c>
       <c r="G51" t="n">
+        <v>1972.666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1996.566666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1982</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1978</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2405,29 @@
         <v>97.82989999999999</v>
       </c>
       <c r="G52" t="n">
+        <v>1973.266666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>1996.15</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1982</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1978</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2451,21 @@
         <v>0.1</v>
       </c>
       <c r="G53" t="n">
+        <v>1974.666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>1995.75</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2489,21 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
+        <v>1976.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>1995.616666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2527,21 @@
         <v>2299.9306</v>
       </c>
       <c r="G55" t="n">
+        <v>1977.133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1995.033333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2565,21 @@
         <v>17.6</v>
       </c>
       <c r="G56" t="n">
+        <v>1978.533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1994.516666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2603,21 @@
         <v>393.2961</v>
       </c>
       <c r="G57" t="n">
+        <v>1979.866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>1993.916666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2641,21 @@
         <v>169.8745</v>
       </c>
       <c r="G58" t="n">
+        <v>1981.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>1993.25</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2679,21 @@
         <v>0.11</v>
       </c>
       <c r="G59" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H59" t="n">
         <v>1992.883333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2717,21 @@
         <v>0.11</v>
       </c>
       <c r="G60" t="n">
+        <v>1985.066666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>1992.583333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2755,21 @@
         <v>955</v>
       </c>
       <c r="G61" t="n">
+        <v>1987.533333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>1992.533333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2793,21 @@
         <v>199.3106</v>
       </c>
       <c r="G62" t="n">
+        <v>1989.733333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>1992.45</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2831,21 @@
         <v>160</v>
       </c>
       <c r="G63" t="n">
+        <v>1991.666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1992.383333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2869,21 @@
         <v>0.1</v>
       </c>
       <c r="G64" t="n">
+        <v>1993.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>1992.383333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2907,21 @@
         <v>52.1796</v>
       </c>
       <c r="G65" t="n">
+        <v>1995.6</v>
+      </c>
+      <c r="H65" t="n">
         <v>1992.316666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2945,21 @@
         <v>257.575</v>
       </c>
       <c r="G66" t="n">
+        <v>1997.466666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1992.316666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2983,21 @@
         <v>276.7652</v>
       </c>
       <c r="G67" t="n">
+        <v>1999.333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1992.366666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3021,21 @@
         <v>57.228</v>
       </c>
       <c r="G68" t="n">
+        <v>2000.266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1992.416666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3059,21 @@
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
+        <v>2000.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>1992.25</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3097,21 @@
         <v>0.11</v>
       </c>
       <c r="G70" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1992.283333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3135,21 @@
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
+        <v>2002.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>1992.133333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3173,21 @@
         <v>387.7672</v>
       </c>
       <c r="G72" t="n">
+        <v>2004.266666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>1992</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3211,21 @@
         <v>89574.5232</v>
       </c>
       <c r="G73" t="n">
+        <v>2005.733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1992</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3249,21 @@
         <v>65920.624</v>
       </c>
       <c r="G74" t="n">
+        <v>2006.333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1992</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3287,21 @@
         <v>25310.412</v>
       </c>
       <c r="G75" t="n">
+        <v>2006.666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>1992</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3325,21 @@
         <v>79206.4752</v>
       </c>
       <c r="G76" t="n">
+        <v>2006.933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1992</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3363,21 @@
         <v>79802.0096</v>
       </c>
       <c r="G77" t="n">
+        <v>2007.066666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1992</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3401,21 @@
         <v>78823.0252</v>
       </c>
       <c r="G78" t="n">
+        <v>2006.933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1992</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3439,21 @@
         <v>9311.3938</v>
       </c>
       <c r="G79" t="n">
+        <v>2006.666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>1991.85</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3477,21 @@
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
+        <v>2007.133333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1992.066666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3515,21 @@
         <v>114.641</v>
       </c>
       <c r="G81" t="n">
+        <v>2006.866666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1992.283333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3553,21 @@
         <v>58.0102</v>
       </c>
       <c r="G82" t="n">
+        <v>2007.066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1992.65</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3591,21 @@
         <v>85.79179999999999</v>
       </c>
       <c r="G83" t="n">
+        <v>2007.266666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>1993.033333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3629,21 @@
         <v>271.61</v>
       </c>
       <c r="G84" t="n">
+        <v>2008.266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>1993.083333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3667,21 @@
         <v>340</v>
       </c>
       <c r="G85" t="n">
+        <v>2008.466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>1993.416666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3705,21 @@
         <v>90.98999999999999</v>
       </c>
       <c r="G86" t="n">
+        <v>2009.466666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>1993.383333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3743,21 @@
         <v>77.37</v>
       </c>
       <c r="G87" t="n">
+        <v>2009.866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>1993.35</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3781,21 @@
         <v>62.7899</v>
       </c>
       <c r="G88" t="n">
+        <v>2010.466666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1993.633333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3819,21 @@
         <v>68.66</v>
       </c>
       <c r="G89" t="n">
+        <v>2010.866666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>1993.8</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3857,21 @@
         <v>168.6433</v>
       </c>
       <c r="G90" t="n">
+        <v>2011.333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>1994.25</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3895,21 @@
         <v>397.1833</v>
       </c>
       <c r="G91" t="n">
+        <v>2013.333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1995.083333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3933,21 @@
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
+        <v>2017.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>1996.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3971,21 @@
         <v>30.1083</v>
       </c>
       <c r="G93" t="n">
+        <v>2017.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>1997.05</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4009,21 @@
         <v>306.04</v>
       </c>
       <c r="G94" t="n">
+        <v>2018.066666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1997.716666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4047,21 @@
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
+        <v>2016.933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1998.033333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4085,21 @@
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
+        <v>2019.2</v>
+      </c>
+      <c r="H96" t="n">
         <v>1999.05</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4123,21 @@
         <v>16.9515</v>
       </c>
       <c r="G97" t="n">
+        <v>2018.2</v>
+      </c>
+      <c r="H97" t="n">
         <v>1999.466666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4161,21 @@
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
+        <v>2017.533333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>1999.933333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4199,21 @@
         <v>149.768</v>
       </c>
       <c r="G99" t="n">
+        <v>2016.333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>2000.35</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4237,21 @@
         <v>36.6586</v>
       </c>
       <c r="G100" t="n">
+        <v>2015.133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>2000.766666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4275,21 @@
         <v>280.52</v>
       </c>
       <c r="G101" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H101" t="n">
         <v>2001.2</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4313,21 @@
         <v>59.7963</v>
       </c>
       <c r="G102" t="n">
+        <v>2012.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>2001.7</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4351,21 @@
         <v>192.9122</v>
       </c>
       <c r="G103" t="n">
+        <v>2011.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>2002.2</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4389,21 @@
         <v>0.0001</v>
       </c>
       <c r="G104" t="n">
+        <v>2010.2</v>
+      </c>
+      <c r="H104" t="n">
         <v>2002.6</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4427,21 @@
         <v>0.12</v>
       </c>
       <c r="G105" t="n">
+        <v>2010.333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>2003.35</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4465,21 @@
         <v>118.8097</v>
       </c>
       <c r="G106" t="n">
+        <v>2008.333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>2004.033333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4503,21 @@
         <v>1254.0603</v>
       </c>
       <c r="G107" t="n">
+        <v>2004.8</v>
+      </c>
+      <c r="H107" t="n">
         <v>2004.7</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4541,21 @@
         <v>682.5657</v>
       </c>
       <c r="G108" t="n">
+        <v>2004.333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>2005.133333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4579,21 @@
         <v>0.0001</v>
       </c>
       <c r="G109" t="n">
+        <v>2003.866666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>2005.6</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,22 +4617,21 @@
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
+        <v>2005.266666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>2006.233333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,24 +4655,21 @@
         <v>35.1966</v>
       </c>
       <c r="G111" t="n">
+        <v>2002.466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>2006.5</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,24 +4693,21 @@
         <v>271.11</v>
       </c>
       <c r="G112" t="n">
-        <v>2007</v>
+        <v>2003.4</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,24 +4731,21 @@
         <v>23.5844</v>
       </c>
       <c r="G113" t="n">
+        <v>2003.266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>2007.083333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,24 +4769,21 @@
         <v>29.9432</v>
       </c>
       <c r="G114" t="n">
+        <v>2003.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>2007.2</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,24 +4807,21 @@
         <v>0.1</v>
       </c>
       <c r="G115" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H115" t="n">
         <v>2007.733333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,24 +4845,21 @@
         <v>33.559</v>
       </c>
       <c r="G116" t="n">
+        <v>2005.266666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>2007.883333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4513,24 +4883,21 @@
         <v>0.1</v>
       </c>
       <c r="G117" t="n">
+        <v>2006.666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>2008.4</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,24 +4921,401 @@
         <v>18.3752</v>
       </c>
       <c r="G118" t="n">
+        <v>2006.266666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>2008.466666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2006</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2006.533333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2008.483333333333</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18.6093</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2004.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2008.133333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2004.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2008.25</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F122" t="n">
+        <v>76.5899</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2008.016666666667</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1977</v>
+      </c>
+      <c r="F123" t="n">
+        <v>220</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2001.066666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2007.483333333333</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2000.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2007.25</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1999.133333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2007.116666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F126" t="n">
+        <v>176.62</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1998.466666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2006.75</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1997.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2006.566666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14.3246</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1997.266666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2006.333333333333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="C2" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="D2" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="E2" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="F2" t="n">
-        <v>1145.4</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2018.333333333333</v>
+        <v>-2572.8391</v>
       </c>
       <c r="H2" t="n">
-        <v>2030.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2013</v>
+        <v>2028</v>
       </c>
       <c r="C3" t="n">
-        <v>2013</v>
+        <v>2028</v>
       </c>
       <c r="D3" t="n">
-        <v>2013</v>
+        <v>2028</v>
       </c>
       <c r="E3" t="n">
-        <v>2013</v>
+        <v>2028</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>19.7831</v>
       </c>
       <c r="G3" t="n">
-        <v>2016.8</v>
+        <v>-2592.6222</v>
       </c>
       <c r="H3" t="n">
-        <v>2030.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C4" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D4" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E4" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F4" t="n">
-        <v>369.2679</v>
+        <v>659.6469</v>
       </c>
       <c r="G4" t="n">
-        <v>2015.666666666667</v>
+        <v>-3252.2691</v>
       </c>
       <c r="H4" t="n">
-        <v>2029.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="D5" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="E5" t="n">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="F5" t="n">
-        <v>30.5321</v>
+        <v>46.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2015.466666666667</v>
+        <v>-3205.669100000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2029.05</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="C6" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="E6" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="n">
-        <v>35.6001</v>
+        <v>53.7482</v>
       </c>
       <c r="G6" t="n">
-        <v>2014.466666666667</v>
+        <v>-3205.669100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2028.533333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="D7" t="n">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="E7" t="n">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="F7" t="n">
-        <v>201.6212</v>
+        <v>266</v>
       </c>
       <c r="G7" t="n">
-        <v>2014.466666666667</v>
+        <v>-3471.669100000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2027.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2008</v>
+        <v>2038</v>
       </c>
       <c r="C8" t="n">
-        <v>2007</v>
+        <v>2038</v>
       </c>
       <c r="D8" t="n">
-        <v>2008</v>
+        <v>2038</v>
       </c>
       <c r="E8" t="n">
-        <v>2007</v>
+        <v>2038</v>
       </c>
       <c r="F8" t="n">
-        <v>1125</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2013.6</v>
+        <v>-3471.569100000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2027.4</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2008</v>
+        <v>2041</v>
       </c>
       <c r="C9" t="n">
-        <v>2008</v>
+        <v>2041</v>
       </c>
       <c r="D9" t="n">
-        <v>2008</v>
+        <v>2041</v>
       </c>
       <c r="E9" t="n">
-        <v>2008</v>
+        <v>2041</v>
       </c>
       <c r="F9" t="n">
-        <v>32.7874</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2014.066666666667</v>
+        <v>-3471.469100000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2026.85</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="C10" t="n">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="D10" t="n">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="E10" t="n">
-        <v>2008</v>
+        <v>2045</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2013.333333333333</v>
+        <v>-3471.369100000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2026.25</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2008</v>
+        <v>2040</v>
       </c>
       <c r="C11" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="D11" t="n">
-        <v>2008</v>
+        <v>2040</v>
       </c>
       <c r="E11" t="n">
-        <v>2007</v>
+        <v>2039</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>373.2121</v>
       </c>
       <c r="G11" t="n">
-        <v>2012.333333333333</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2025.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2015</v>
+        <v>2039</v>
       </c>
       <c r="C12" t="n">
-        <v>2015</v>
+        <v>2040</v>
       </c>
       <c r="D12" t="n">
-        <v>2015</v>
+        <v>2040</v>
       </c>
       <c r="E12" t="n">
-        <v>2015</v>
+        <v>2039</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>152.05</v>
       </c>
       <c r="G12" t="n">
-        <v>2011.933333333333</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2025.266666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="C13" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="D13" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="E13" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="F13" t="n">
-        <v>21.3248</v>
+        <v>94.8473</v>
       </c>
       <c r="G13" t="n">
-        <v>2010.733333333333</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2024.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2007</v>
+        <v>2043</v>
       </c>
       <c r="C14" t="n">
-        <v>2007</v>
+        <v>2043</v>
       </c>
       <c r="D14" t="n">
-        <v>2007</v>
+        <v>2043</v>
       </c>
       <c r="E14" t="n">
-        <v>2007</v>
+        <v>2043</v>
       </c>
       <c r="F14" t="n">
-        <v>696.9299999999999</v>
+        <v>279</v>
       </c>
       <c r="G14" t="n">
-        <v>2009.866666666667</v>
+        <v>-3565.581200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2024.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2007</v>
+        <v>2042</v>
       </c>
       <c r="C15" t="n">
-        <v>2007</v>
+        <v>2042</v>
       </c>
       <c r="D15" t="n">
-        <v>2007</v>
+        <v>2042</v>
       </c>
       <c r="E15" t="n">
-        <v>2007</v>
+        <v>2042</v>
       </c>
       <c r="F15" t="n">
-        <v>490.7424</v>
+        <v>357.3464</v>
       </c>
       <c r="G15" t="n">
-        <v>2009</v>
+        <v>-3922.927600000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2024.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2053</v>
       </c>
       <c r="C16" t="n">
-        <v>2007</v>
+        <v>2053</v>
       </c>
       <c r="D16" t="n">
-        <v>2007</v>
+        <v>2053</v>
       </c>
       <c r="E16" t="n">
-        <v>2007</v>
+        <v>2053</v>
       </c>
       <c r="F16" t="n">
-        <v>22.727</v>
+        <v>339.4791</v>
       </c>
       <c r="G16" t="n">
-        <v>2009.066666666667</v>
+        <v>-3583.448500000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2023.75</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2007</v>
+        <v>2036</v>
       </c>
       <c r="C17" t="n">
-        <v>2007</v>
+        <v>2036</v>
       </c>
       <c r="D17" t="n">
-        <v>2007</v>
+        <v>2036</v>
       </c>
       <c r="E17" t="n">
-        <v>2007</v>
+        <v>2036</v>
       </c>
       <c r="F17" t="n">
-        <v>712.3203</v>
+        <v>18.1578</v>
       </c>
       <c r="G17" t="n">
-        <v>2008.866666666667</v>
+        <v>-3601.606300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2023.466666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2007</v>
+        <v>2029</v>
       </c>
       <c r="C18" t="n">
-        <v>2007</v>
+        <v>2027</v>
       </c>
       <c r="D18" t="n">
-        <v>2007</v>
+        <v>2029</v>
       </c>
       <c r="E18" t="n">
-        <v>2007</v>
+        <v>2027</v>
       </c>
       <c r="F18" t="n">
-        <v>151.5662</v>
+        <v>210.7641</v>
       </c>
       <c r="G18" t="n">
-        <v>2008.466666666667</v>
+        <v>-3812.370400000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2023.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C19" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="n">
         <v>2016</v>
       </c>
       <c r="E19" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F19" t="n">
-        <v>109.6232</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>2008.8</v>
+        <v>-3885.020400000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.6</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="C20" t="n">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="D20" t="n">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="E20" t="n">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="F20" t="n">
-        <v>64.7</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2008.133333333333</v>
+        <v>-3884.920400000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2022.15</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1163,33 +1101,30 @@
         <v>2011</v>
       </c>
       <c r="C21" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="D21" t="n">
         <v>2011</v>
       </c>
       <c r="E21" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="F21" t="n">
-        <v>106.5129</v>
+        <v>345</v>
       </c>
       <c r="G21" t="n">
-        <v>2007</v>
+        <v>-4229.920400000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2021.316666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1991</v>
+        <v>2020</v>
       </c>
       <c r="C22" t="n">
-        <v>1991</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>1991</v>
+        <v>2020</v>
       </c>
       <c r="E22" t="n">
-        <v>1991</v>
+        <v>2020</v>
       </c>
       <c r="F22" t="n">
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2005.933333333333</v>
+        <v>-4229.820400000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2020.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="C23" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="D23" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="E23" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>18.4046</v>
       </c>
       <c r="G23" t="n">
-        <v>2004.8</v>
+        <v>-4248.225</v>
       </c>
       <c r="H23" t="n">
-        <v>2019.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C24" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="D24" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E24" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F24" t="n">
-        <v>64.7</v>
+        <v>116.67</v>
       </c>
       <c r="G24" t="n">
-        <v>2004.933333333333</v>
+        <v>-4131.555</v>
       </c>
       <c r="H24" t="n">
-        <v>2019.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1993</v>
+        <v>2022</v>
       </c>
       <c r="C25" t="n">
-        <v>1993</v>
+        <v>2022</v>
       </c>
       <c r="D25" t="n">
-        <v>1993</v>
+        <v>2022</v>
       </c>
       <c r="E25" t="n">
-        <v>1993</v>
+        <v>2022</v>
       </c>
       <c r="F25" t="n">
-        <v>16.8551</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2003.933333333333</v>
+        <v>-4131.455</v>
       </c>
       <c r="H25" t="n">
-        <v>2018.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E26" t="n">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="F26" t="n">
-        <v>280000</v>
+        <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>2004.466666666667</v>
+        <v>-4631.455</v>
       </c>
       <c r="H26" t="n">
-        <v>2018.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2015</v>
+        <v>2030</v>
       </c>
       <c r="C27" t="n">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="D27" t="n">
-        <v>2015</v>
+        <v>2030</v>
       </c>
       <c r="E27" t="n">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="F27" t="n">
-        <v>60000</v>
+        <v>377.2282</v>
       </c>
       <c r="G27" t="n">
-        <v>2004.466666666667</v>
+        <v>-4254.2268</v>
       </c>
       <c r="H27" t="n">
-        <v>2018.466666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C28" t="n">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E28" t="n">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="F28" t="n">
-        <v>441.9113</v>
+        <v>142.7507</v>
       </c>
       <c r="G28" t="n">
-        <v>2003.933333333333</v>
+        <v>-4396.9775</v>
       </c>
       <c r="H28" t="n">
-        <v>2017.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="C29" t="n">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="E29" t="n">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="F29" t="n">
-        <v>84.06140000000001</v>
+        <v>13.5358</v>
       </c>
       <c r="G29" t="n">
-        <v>2003.666666666667</v>
+        <v>-4396.9775</v>
       </c>
       <c r="H29" t="n">
-        <v>2017.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="C30" t="n">
-        <v>1987</v>
+        <v>2006</v>
       </c>
       <c r="D30" t="n">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="E30" t="n">
-        <v>1987</v>
+        <v>2006</v>
       </c>
       <c r="F30" t="n">
-        <v>36.73</v>
+        <v>18.15</v>
       </c>
       <c r="G30" t="n">
-        <v>2002.333333333333</v>
+        <v>-4415.1275</v>
       </c>
       <c r="H30" t="n">
-        <v>2016.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="C31" t="n">
-        <v>1987</v>
+        <v>2010</v>
       </c>
       <c r="D31" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="E31" t="n">
-        <v>1987</v>
+        <v>2010</v>
       </c>
       <c r="F31" t="n">
-        <v>1613.6082</v>
+        <v>1145.4</v>
       </c>
       <c r="G31" t="n">
-        <v>2001</v>
+        <v>-3269.7275</v>
       </c>
       <c r="H31" t="n">
-        <v>2016.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1985</v>
+        <v>2013</v>
       </c>
       <c r="C32" t="n">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>1985</v>
+        <v>2013</v>
       </c>
       <c r="E32" t="n">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="F32" t="n">
-        <v>513.7182</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>1999.2</v>
+        <v>-3229.7275</v>
       </c>
       <c r="H32" t="n">
-        <v>2015.366666666667</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>2010</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2010</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1522,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="C33" t="n">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="D33" t="n">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="E33" t="n">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="F33" t="n">
-        <v>1126.2884</v>
+        <v>369.2679</v>
       </c>
       <c r="G33" t="n">
-        <v>1997.4</v>
+        <v>-3598.995399999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2014.366666666667</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1565,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1973</v>
+        <v>2013</v>
       </c>
       <c r="C34" t="n">
-        <v>1973</v>
+        <v>2013</v>
       </c>
       <c r="D34" t="n">
-        <v>1973</v>
+        <v>2013</v>
       </c>
       <c r="E34" t="n">
-        <v>1973</v>
+        <v>2013</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>30.5321</v>
       </c>
       <c r="G34" t="n">
-        <v>1994.6</v>
+        <v>-3568.463299999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2013.45</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1608,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1974</v>
+        <v>2010</v>
       </c>
       <c r="C35" t="n">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="D35" t="n">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="E35" t="n">
-        <v>1974</v>
+        <v>2010</v>
       </c>
       <c r="F35" t="n">
-        <v>771</v>
+        <v>35.6001</v>
       </c>
       <c r="G35" t="n">
-        <v>1993.066666666667</v>
+        <v>-3604.0634</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>2013</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="K35" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1651,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="C36" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="D36" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="E36" t="n">
-        <v>1979</v>
+        <v>2006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1</v>
+        <v>201.6212</v>
       </c>
       <c r="G36" t="n">
-        <v>1992.133333333333</v>
+        <v>-3805.6846</v>
       </c>
       <c r="H36" t="n">
-        <v>2012.25</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>2010</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1694,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="C37" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="D37" t="n">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="E37" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="F37" t="n">
-        <v>8662.9648</v>
+        <v>1125</v>
       </c>
       <c r="G37" t="n">
-        <v>1990.933333333333</v>
+        <v>-3805.6846</v>
       </c>
       <c r="H37" t="n">
-        <v>2011.4</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1737,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="C38" t="n">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="D38" t="n">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="E38" t="n">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="F38" t="n">
-        <v>46.58</v>
+        <v>32.7874</v>
       </c>
       <c r="G38" t="n">
-        <v>1989.933333333333</v>
+        <v>-3772.897199999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2010.633333333333</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1780,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="C39" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="D39" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="E39" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="F39" t="n">
-        <v>22.6533</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>1987.266666666667</v>
+        <v>-3772.897199999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2009.5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1823,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="C40" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="D40" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="E40" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="F40" t="n">
-        <v>8.705399999999999</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>1985.733333333333</v>
+        <v>-3782.897199999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2008.316666666667</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1866,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="C41" t="n">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="E41" t="n">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="F41" t="n">
-        <v>31.3003</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>1982.733333333333</v>
+        <v>-3742.897199999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2007.066666666667</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1909,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="C42" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="D42" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="E42" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>21.3248</v>
       </c>
       <c r="G42" t="n">
-        <v>1979.4</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2005.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1950,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="C43" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="D43" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="E43" t="n">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="F43" t="n">
-        <v>12.4688</v>
+        <v>696.9299999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>1977.133333333333</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2004.566666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,40 +1991,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="C44" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="E44" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="F44" t="n">
-        <v>106.0358</v>
+        <v>490.7424</v>
       </c>
       <c r="G44" t="n">
-        <v>1975</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2003.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>1965</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1965</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,44 +2032,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="C45" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="D45" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="E45" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="F45" t="n">
-        <v>63.44</v>
+        <v>22.727</v>
       </c>
       <c r="G45" t="n">
-        <v>1973.933333333333</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2002.216666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>1971</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1965</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,44 +2073,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="C46" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="D46" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="E46" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>712.3203</v>
       </c>
       <c r="G46" t="n">
-        <v>1972.533333333333</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2000.95</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="K46" t="n">
-        <v>1971</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1965</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,40 +2116,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="C47" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="D47" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="E47" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>151.5662</v>
       </c>
       <c r="G47" t="n">
-        <v>1972</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1999.6</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="K47" t="n">
-        <v>1966</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1966</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,44 +2159,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="C48" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>1980</v>
+        <v>2016</v>
       </c>
       <c r="E48" t="n">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1</v>
+        <v>109.6232</v>
       </c>
       <c r="G48" t="n">
-        <v>1972</v>
+        <v>-3654.598799999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1998.666666666667</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="K48" t="n">
-        <v>1972</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1966</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,44 +2202,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="C49" t="n">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="D49" t="n">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="E49" t="n">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="F49" t="n">
-        <v>80.2941</v>
+        <v>64.7</v>
       </c>
       <c r="G49" t="n">
-        <v>1972.333333333333</v>
+        <v>-3719.298799999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1997.85</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="K49" t="n">
-        <v>1980</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1966</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,40 +2245,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1982</v>
+        <v>2011</v>
       </c>
       <c r="C50" t="n">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="D50" t="n">
-        <v>1982</v>
+        <v>2011</v>
       </c>
       <c r="E50" t="n">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1</v>
+        <v>106.5129</v>
       </c>
       <c r="G50" t="n">
-        <v>1972.466666666667</v>
+        <v>-3825.811699999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1997.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>1978</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1978</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,44 +2286,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="C51" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="D51" t="n">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="E51" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="F51" t="n">
-        <v>321.2942</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>1972.666666666667</v>
+        <v>-3825.911699999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1996.566666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1978</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,44 +2327,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="C52" t="n">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="D52" t="n">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E52" t="n">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="F52" t="n">
-        <v>97.82989999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>1973.266666666667</v>
+        <v>-3826.011699999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1996.15</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>1982</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1978</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,36 +2368,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="C53" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="D53" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E53" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1</v>
+        <v>64.7</v>
       </c>
       <c r="G53" t="n">
-        <v>1974.666666666667</v>
+        <v>-3761.311699999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1995.75</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>1990</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2486,24 +2423,27 @@
         <v>1993</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>16.8551</v>
       </c>
       <c r="G54" t="n">
-        <v>1976.2</v>
+        <v>-3778.1668</v>
       </c>
       <c r="H54" t="n">
-        <v>1995.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,36 +2452,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="E55" t="n">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="F55" t="n">
-        <v>2299.9306</v>
+        <v>280000</v>
       </c>
       <c r="G55" t="n">
-        <v>1977.133333333333</v>
+        <v>276221.8332</v>
       </c>
       <c r="H55" t="n">
-        <v>1995.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,36 +2493,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="C56" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="E56" t="n">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="F56" t="n">
-        <v>17.6</v>
+        <v>60000</v>
       </c>
       <c r="G56" t="n">
-        <v>1978.533333333333</v>
+        <v>276221.8332</v>
       </c>
       <c r="H56" t="n">
-        <v>1994.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,36 +2534,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1986</v>
+        <v>2024</v>
       </c>
       <c r="C57" t="n">
-        <v>1985</v>
+        <v>1999</v>
       </c>
       <c r="D57" t="n">
-        <v>1986</v>
+        <v>2024</v>
       </c>
       <c r="E57" t="n">
-        <v>1985</v>
+        <v>1999</v>
       </c>
       <c r="F57" t="n">
-        <v>393.2961</v>
+        <v>441.9113</v>
       </c>
       <c r="G57" t="n">
-        <v>1979.866666666667</v>
+        <v>275779.9219</v>
       </c>
       <c r="H57" t="n">
-        <v>1993.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,36 +2575,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="C58" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="D58" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="E58" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="F58" t="n">
-        <v>169.8745</v>
+        <v>84.06140000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>1981.2</v>
+        <v>275863.9833</v>
       </c>
       <c r="H58" t="n">
-        <v>1993.25</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,36 +2616,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C59" t="n">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="D59" t="n">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="E59" t="n">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="F59" t="n">
-        <v>0.11</v>
+        <v>36.73</v>
       </c>
       <c r="G59" t="n">
-        <v>1983</v>
+        <v>275827.2533</v>
       </c>
       <c r="H59" t="n">
-        <v>1992.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,36 +2657,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C60" t="n">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="D60" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E60" t="n">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="F60" t="n">
-        <v>0.11</v>
+        <v>1613.6082</v>
       </c>
       <c r="G60" t="n">
-        <v>1985.066666666667</v>
+        <v>275827.2533</v>
       </c>
       <c r="H60" t="n">
-        <v>1992.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,36 +2698,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="C61" t="n">
-        <v>2003</v>
+        <v>1980</v>
       </c>
       <c r="D61" t="n">
-        <v>2003</v>
+        <v>1985</v>
       </c>
       <c r="E61" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="F61" t="n">
-        <v>955</v>
+        <v>513.7182</v>
       </c>
       <c r="G61" t="n">
-        <v>1987.533333333333</v>
+        <v>275313.5351</v>
       </c>
       <c r="H61" t="n">
-        <v>1992.533333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,36 +2739,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="C62" t="n">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="D62" t="n">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="E62" t="n">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="F62" t="n">
-        <v>199.3106</v>
+        <v>1126.2884</v>
       </c>
       <c r="G62" t="n">
-        <v>1989.733333333333</v>
+        <v>275313.5351</v>
       </c>
       <c r="H62" t="n">
-        <v>1992.45</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,36 +2780,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="C63" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="D63" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="E63" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="F63" t="n">
-        <v>160</v>
+        <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>1991.666666666667</v>
+        <v>275313.4351000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1992.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,36 +2821,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2010</v>
+        <v>1974</v>
       </c>
       <c r="C64" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="D64" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="E64" t="n">
-        <v>2010</v>
+        <v>1974</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>771</v>
       </c>
       <c r="G64" t="n">
-        <v>1993.8</v>
+        <v>276084.4351000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1992.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,36 +2862,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="C65" t="n">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="D65" t="n">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="E65" t="n">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="F65" t="n">
-        <v>52.1796</v>
+        <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>1995.6</v>
+        <v>276084.3351000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1992.316666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,36 +2903,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2010</v>
+        <v>1983</v>
       </c>
       <c r="C66" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="D66" t="n">
-        <v>2010</v>
+        <v>1983</v>
       </c>
       <c r="E66" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="F66" t="n">
-        <v>257.575</v>
+        <v>8662.9648</v>
       </c>
       <c r="G66" t="n">
-        <v>1997.466666666667</v>
+        <v>267421.3703000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1992.316666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,36 +2944,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="C67" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="D67" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="E67" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="F67" t="n">
-        <v>276.7652</v>
+        <v>46.58</v>
       </c>
       <c r="G67" t="n">
-        <v>1999.333333333333</v>
+        <v>267467.9503000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1992.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,36 +2985,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="C68" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="D68" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="E68" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="F68" t="n">
-        <v>57.228</v>
+        <v>22.6533</v>
       </c>
       <c r="G68" t="n">
-        <v>2000.266666666667</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1992.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,36 +3026,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="C69" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="D69" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="E69" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1</v>
+        <v>8.705399999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>2000.6</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1992.25</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,36 +3067,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="C70" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="D70" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="E70" t="n">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="F70" t="n">
-        <v>0.11</v>
+        <v>31.3003</v>
       </c>
       <c r="G70" t="n">
-        <v>2002.333333333333</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1992.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,36 +3108,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1998</v>
+        <v>1965</v>
       </c>
       <c r="C71" t="n">
-        <v>1998</v>
+        <v>1965</v>
       </c>
       <c r="D71" t="n">
-        <v>1998</v>
+        <v>1965</v>
       </c>
       <c r="E71" t="n">
-        <v>1998</v>
+        <v>1965</v>
       </c>
       <c r="F71" t="n">
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>2002.8</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1992.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,36 +3149,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2007</v>
+        <v>1965</v>
       </c>
       <c r="C72" t="n">
-        <v>2007</v>
+        <v>1965</v>
       </c>
       <c r="D72" t="n">
-        <v>2007</v>
+        <v>1965</v>
       </c>
       <c r="E72" t="n">
-        <v>2007</v>
+        <v>1965</v>
       </c>
       <c r="F72" t="n">
-        <v>387.7672</v>
+        <v>12.4688</v>
       </c>
       <c r="G72" t="n">
-        <v>2004.266666666667</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,36 +3190,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="C73" t="n">
-        <v>2007</v>
+        <v>1971</v>
       </c>
       <c r="D73" t="n">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="E73" t="n">
-        <v>1998</v>
+        <v>1971</v>
       </c>
       <c r="F73" t="n">
-        <v>89574.5232</v>
+        <v>106.0358</v>
       </c>
       <c r="G73" t="n">
-        <v>2005.733333333333</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,36 +3231,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2007</v>
+        <v>1971</v>
       </c>
       <c r="C74" t="n">
-        <v>2007</v>
+        <v>1971</v>
       </c>
       <c r="D74" t="n">
-        <v>2007</v>
+        <v>1971</v>
       </c>
       <c r="E74" t="n">
-        <v>1998</v>
+        <v>1971</v>
       </c>
       <c r="F74" t="n">
-        <v>65920.624</v>
+        <v>63.44</v>
       </c>
       <c r="G74" t="n">
-        <v>2006.333333333333</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,36 +3272,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2000</v>
+        <v>1966</v>
       </c>
       <c r="C75" t="n">
-        <v>2007</v>
+        <v>1966</v>
       </c>
       <c r="D75" t="n">
-        <v>2007</v>
+        <v>1966</v>
       </c>
       <c r="E75" t="n">
-        <v>2000</v>
+        <v>1966</v>
       </c>
       <c r="F75" t="n">
-        <v>25310.412</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>2006.666666666667</v>
+        <v>267551.1328000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,36 +3313,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="C76" t="n">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="D76" t="n">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="E76" t="n">
-        <v>1999</v>
+        <v>1972</v>
       </c>
       <c r="F76" t="n">
-        <v>79206.4752</v>
+        <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>2006.933333333333</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,36 +3354,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="C77" t="n">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="D77" t="n">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="E77" t="n">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="F77" t="n">
-        <v>79802.0096</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>2007.066666666667</v>
+        <v>267551.3328000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,36 +3395,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="C78" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="D78" t="n">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="E78" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="F78" t="n">
-        <v>78823.0252</v>
+        <v>80.2941</v>
       </c>
       <c r="G78" t="n">
-        <v>2006.933333333333</v>
+        <v>267471.0387000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,36 +3436,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="C79" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="D79" t="n">
-        <v>2056</v>
+        <v>1982</v>
       </c>
       <c r="E79" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="F79" t="n">
-        <v>9311.3938</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>2006.666666666667</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H79" t="n">
-        <v>1991.85</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,36 +3477,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2016</v>
+        <v>1982</v>
       </c>
       <c r="C80" t="n">
-        <v>2016</v>
+        <v>1982</v>
       </c>
       <c r="D80" t="n">
-        <v>2016</v>
+        <v>1983</v>
       </c>
       <c r="E80" t="n">
-        <v>2016</v>
+        <v>1982</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>321.2942</v>
       </c>
       <c r="G80" t="n">
-        <v>2007.133333333333</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1992.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,36 +3518,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="C81" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="D81" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="E81" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="F81" t="n">
-        <v>114.641</v>
+        <v>97.82989999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>2006.866666666667</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1992.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,36 +3559,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="C82" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="D82" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="E82" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="F82" t="n">
-        <v>58.0102</v>
+        <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>2007.066666666667</v>
+        <v>267471.2387</v>
       </c>
       <c r="H82" t="n">
-        <v>1992.65</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,36 +3600,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="C83" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="D83" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="E83" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="F83" t="n">
-        <v>85.79179999999999</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>2007.266666666667</v>
+        <v>267371.2387</v>
       </c>
       <c r="H83" t="n">
-        <v>1993.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,36 +3641,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="C84" t="n">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="D84" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="E84" t="n">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="F84" t="n">
-        <v>271.61</v>
+        <v>2299.9306</v>
       </c>
       <c r="G84" t="n">
-        <v>2008.266666666667</v>
+        <v>265071.3081</v>
       </c>
       <c r="H84" t="n">
-        <v>1993.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,36 +3682,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="C85" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="D85" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="E85" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="F85" t="n">
-        <v>340</v>
+        <v>17.6</v>
       </c>
       <c r="G85" t="n">
-        <v>2008.466666666667</v>
+        <v>265088.9081</v>
       </c>
       <c r="H85" t="n">
-        <v>1993.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,36 +3723,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2013</v>
+        <v>1986</v>
       </c>
       <c r="C86" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="D86" t="n">
-        <v>2013</v>
+        <v>1986</v>
       </c>
       <c r="E86" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F86" t="n">
-        <v>90.98999999999999</v>
+        <v>393.2961</v>
       </c>
       <c r="G86" t="n">
-        <v>2009.466666666667</v>
+        <v>264695.612</v>
       </c>
       <c r="H86" t="n">
-        <v>1993.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,36 +3764,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="C87" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="D87" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E87" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F87" t="n">
-        <v>77.37</v>
+        <v>169.8745</v>
       </c>
       <c r="G87" t="n">
-        <v>2009.866666666667</v>
+        <v>264695.612</v>
       </c>
       <c r="H87" t="n">
-        <v>1993.35</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,36 +3805,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C88" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="D88" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="E88" t="n">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="F88" t="n">
-        <v>62.7899</v>
+        <v>0.11</v>
       </c>
       <c r="G88" t="n">
-        <v>2010.466666666667</v>
+        <v>264695.722</v>
       </c>
       <c r="H88" t="n">
-        <v>1993.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,36 +3846,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C89" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="D89" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E89" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="F89" t="n">
-        <v>68.66</v>
+        <v>0.11</v>
       </c>
       <c r="G89" t="n">
-        <v>2010.866666666667</v>
+        <v>264695.832</v>
       </c>
       <c r="H89" t="n">
-        <v>1993.8</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,36 +3887,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="D90" t="n">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="E90" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="F90" t="n">
-        <v>168.6433</v>
+        <v>955</v>
       </c>
       <c r="G90" t="n">
-        <v>2011.333333333333</v>
+        <v>265650.832</v>
       </c>
       <c r="H90" t="n">
-        <v>1994.25</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,36 +3928,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2052</v>
+        <v>2005</v>
       </c>
       <c r="C91" t="n">
-        <v>2037</v>
+        <v>2005</v>
       </c>
       <c r="D91" t="n">
-        <v>2052</v>
+        <v>2005</v>
       </c>
       <c r="E91" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F91" t="n">
-        <v>397.1833</v>
+        <v>199.3106</v>
       </c>
       <c r="G91" t="n">
-        <v>2013.333333333333</v>
+        <v>265850.1426</v>
       </c>
       <c r="H91" t="n">
-        <v>1995.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,36 +3969,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2065</v>
+        <v>2009</v>
       </c>
       <c r="C92" t="n">
-        <v>2065</v>
+        <v>2009</v>
       </c>
       <c r="D92" t="n">
-        <v>2065</v>
+        <v>2009</v>
       </c>
       <c r="E92" t="n">
-        <v>2065</v>
+        <v>2009</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>160</v>
       </c>
       <c r="G92" t="n">
-        <v>2017.2</v>
+        <v>266010.1426</v>
       </c>
       <c r="H92" t="n">
-        <v>1996.5</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,36 +4010,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C93" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D93" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E93" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F93" t="n">
-        <v>30.1083</v>
+        <v>0.1</v>
       </c>
       <c r="G93" t="n">
-        <v>2017.6</v>
+        <v>266010.2426</v>
       </c>
       <c r="H93" t="n">
-        <v>1997.05</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,36 +4051,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C94" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D94" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E94" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F94" t="n">
-        <v>306.04</v>
+        <v>52.1796</v>
       </c>
       <c r="G94" t="n">
-        <v>2018.066666666667</v>
+        <v>265958.063</v>
       </c>
       <c r="H94" t="n">
-        <v>1997.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,36 +4092,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="C95" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="D95" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="E95" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1</v>
+        <v>257.575</v>
       </c>
       <c r="G95" t="n">
-        <v>2016.933333333333</v>
+        <v>266215.638</v>
       </c>
       <c r="H95" t="n">
-        <v>1998.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,36 +4133,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="C96" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="D96" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="E96" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1</v>
+        <v>276.7652</v>
       </c>
       <c r="G96" t="n">
-        <v>2019.2</v>
+        <v>266215.638</v>
       </c>
       <c r="H96" t="n">
-        <v>1999.05</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,36 +4174,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="C97" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="D97" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="E97" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F97" t="n">
-        <v>16.9515</v>
+        <v>57.228</v>
       </c>
       <c r="G97" t="n">
-        <v>2018.2</v>
+        <v>266215.638</v>
       </c>
       <c r="H97" t="n">
-        <v>1999.466666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,36 +4215,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C98" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D98" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E98" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>2017.533333333333</v>
+        <v>266215.5380000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1999.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,36 +4256,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="C99" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="D99" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="E99" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="F99" t="n">
-        <v>149.768</v>
+        <v>0.11</v>
       </c>
       <c r="G99" t="n">
-        <v>2016.333333333333</v>
+        <v>266215.648</v>
       </c>
       <c r="H99" t="n">
-        <v>2000.35</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,36 +4297,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="C100" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="D100" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E100" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F100" t="n">
-        <v>36.6586</v>
+        <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>2015.133333333333</v>
+        <v>266215.5480000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2000.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,36 +4338,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="C101" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="D101" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="E101" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="F101" t="n">
-        <v>280.52</v>
+        <v>387.7672</v>
       </c>
       <c r="G101" t="n">
-        <v>2014</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2001.2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,36 +4379,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="C102" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="D102" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="E102" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F102" t="n">
-        <v>59.7963</v>
+        <v>89574.5232</v>
       </c>
       <c r="G102" t="n">
-        <v>2012.8</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2001.7</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,36 +4420,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="C103" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="D103" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="E103" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F103" t="n">
-        <v>192.9122</v>
+        <v>65920.624</v>
       </c>
       <c r="G103" t="n">
-        <v>2011.4</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2002.2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,36 +4461,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C104" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="D104" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="E104" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0001</v>
+        <v>25310.412</v>
       </c>
       <c r="G104" t="n">
-        <v>2010.2</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2002.6</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,36 +4502,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C105" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D105" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E105" t="n">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12</v>
+        <v>79206.4752</v>
       </c>
       <c r="G105" t="n">
-        <v>2010.333333333333</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2003.35</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,27 +4552,30 @@
         <v>2007</v>
       </c>
       <c r="E106" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F106" t="n">
-        <v>118.8097</v>
+        <v>79802.0096</v>
       </c>
       <c r="G106" t="n">
-        <v>2008.333333333333</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2004.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,36 +4584,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C107" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D107" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E107" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F107" t="n">
-        <v>1254.0603</v>
+        <v>78823.0252</v>
       </c>
       <c r="G107" t="n">
-        <v>2004.8</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2004.7</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,36 +4625,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C108" t="n">
         <v>2006</v>
       </c>
       <c r="D108" t="n">
-        <v>2011</v>
+        <v>2056</v>
       </c>
       <c r="E108" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="F108" t="n">
-        <v>682.5657</v>
+        <v>9311.3938</v>
       </c>
       <c r="G108" t="n">
-        <v>2004.333333333333</v>
+        <v>257291.9214000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2005.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,36 +4666,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C109" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E109" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>2003.866666666667</v>
+        <v>257292.0214000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2005.6</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,36 +4707,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C110" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D110" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="E110" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1</v>
+        <v>114.641</v>
       </c>
       <c r="G110" t="n">
-        <v>2005.266666666667</v>
+        <v>257177.3804000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2006.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,36 +4748,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C111" t="n">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="D111" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="E111" t="n">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="F111" t="n">
-        <v>35.1966</v>
+        <v>58.0102</v>
       </c>
       <c r="G111" t="n">
-        <v>2002.466666666667</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2006.5</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,36 +4789,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C112" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E112" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F112" t="n">
-        <v>271.11</v>
+        <v>85.79179999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>2003.4</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2007</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,36 +4830,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="C113" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="E113" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="F113" t="n">
-        <v>23.5844</v>
+        <v>271.61</v>
       </c>
       <c r="G113" t="n">
-        <v>2003.266666666667</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2007.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,36 +4871,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="C114" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D114" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E114" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F114" t="n">
-        <v>29.9432</v>
+        <v>340</v>
       </c>
       <c r="G114" t="n">
-        <v>2003.6</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2007.2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,36 +4912,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C115" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D115" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E115" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>2005</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2007.733333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,36 +4953,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C116" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="E116" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F116" t="n">
-        <v>33.559</v>
+        <v>77.37</v>
       </c>
       <c r="G116" t="n">
-        <v>2005.266666666667</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2007.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,7 +4994,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C117" t="n">
         <v>2016</v>
@@ -4877,27 +5003,30 @@
         <v>2016</v>
       </c>
       <c r="E117" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1</v>
+        <v>62.7899</v>
       </c>
       <c r="G117" t="n">
-        <v>2006.666666666667</v>
+        <v>257298.1805000001</v>
       </c>
       <c r="H117" t="n">
-        <v>2008.4</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,36 +5035,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="C118" t="n">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="D118" t="n">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="E118" t="n">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="F118" t="n">
-        <v>18.3752</v>
+        <v>68.66</v>
       </c>
       <c r="G118" t="n">
-        <v>2006.266666666667</v>
+        <v>257229.5205000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2008.466666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,36 +5076,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="C119" t="n">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="D119" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="E119" t="n">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1</v>
+        <v>168.6433</v>
       </c>
       <c r="G119" t="n">
-        <v>2006.533333333333</v>
+        <v>257398.1638000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2008.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,36 +5117,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1981</v>
+        <v>2052</v>
       </c>
       <c r="C120" t="n">
-        <v>1981</v>
+        <v>2037</v>
       </c>
       <c r="D120" t="n">
-        <v>1981</v>
+        <v>2052</v>
       </c>
       <c r="E120" t="n">
-        <v>1981</v>
+        <v>2013</v>
       </c>
       <c r="F120" t="n">
-        <v>18.6093</v>
+        <v>397.1833</v>
       </c>
       <c r="G120" t="n">
-        <v>2004.2</v>
+        <v>257795.3471000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2008.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5020,36 +5158,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="C121" t="n">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="D121" t="n">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="E121" t="n">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>2004.4</v>
+        <v>257795.4471000001</v>
       </c>
       <c r="H121" t="n">
-        <v>2008.25</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,37 +5199,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="C122" t="n">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="D122" t="n">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="E122" t="n">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="F122" t="n">
-        <v>76.5899</v>
+        <v>30.1083</v>
       </c>
       <c r="G122" t="n">
-        <v>2003</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2008.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9964925373134329</v>
       </c>
     </row>
     <row r="123">
@@ -5096,36 +5240,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1986</v>
+        <v>2014</v>
       </c>
       <c r="C123" t="n">
-        <v>1977</v>
+        <v>2013</v>
       </c>
       <c r="D123" t="n">
-        <v>1986</v>
+        <v>2014</v>
       </c>
       <c r="E123" t="n">
-        <v>1977</v>
+        <v>2013</v>
       </c>
       <c r="F123" t="n">
-        <v>220</v>
+        <v>306.04</v>
       </c>
       <c r="G123" t="n">
-        <v>2001.066666666667</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2007.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,36 +5275,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C124" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D124" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E124" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="F124" t="n">
         <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>2000.4</v>
+        <v>257765.2388000001</v>
       </c>
       <c r="H124" t="n">
-        <v>2007.25</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,36 +5310,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2001</v>
+        <v>2040</v>
       </c>
       <c r="C125" t="n">
-        <v>2001</v>
+        <v>2040</v>
       </c>
       <c r="D125" t="n">
-        <v>2001</v>
+        <v>2040</v>
       </c>
       <c r="E125" t="n">
-        <v>2001</v>
+        <v>2040</v>
       </c>
       <c r="F125" t="n">
         <v>0.1</v>
       </c>
       <c r="G125" t="n">
-        <v>1999.133333333333</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H125" t="n">
-        <v>2007.116666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,36 +5345,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="C126" t="n">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="D126" t="n">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="E126" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="F126" t="n">
-        <v>176.62</v>
+        <v>16.9515</v>
       </c>
       <c r="G126" t="n">
-        <v>1998.466666666667</v>
+        <v>257748.3873000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2006.75</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,36 +5380,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C127" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D127" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E127" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F127" t="n">
         <v>0.1</v>
       </c>
       <c r="G127" t="n">
-        <v>1997.6</v>
+        <v>257748.4873000001</v>
       </c>
       <c r="H127" t="n">
-        <v>2006.566666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5286,36 +5415,1048 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C128" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D128" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E128" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F128" t="n">
-        <v>14.3246</v>
+        <v>149.768</v>
       </c>
       <c r="G128" t="n">
-        <v>1997.266666666667</v>
+        <v>257598.7193000001</v>
       </c>
       <c r="H128" t="n">
-        <v>2006.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F129" t="n">
+        <v>36.6586</v>
+      </c>
+      <c r="G129" t="n">
+        <v>257598.7193000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F130" t="n">
+        <v>280.52</v>
+      </c>
+      <c r="G130" t="n">
+        <v>257879.2393000001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F131" t="n">
+        <v>59.7963</v>
+      </c>
+      <c r="G131" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F132" t="n">
+        <v>192.9122</v>
+      </c>
+      <c r="G132" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G134" t="n">
+        <v>257819.5630000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F135" t="n">
+        <v>118.8097</v>
+      </c>
+      <c r="G135" t="n">
+        <v>257700.7533000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1254.0603</v>
+      </c>
+      <c r="G136" t="n">
+        <v>258954.8136000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F137" t="n">
+        <v>682.5657</v>
+      </c>
+      <c r="G137" t="n">
+        <v>258272.2479000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>258272.2479000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>258272.3479000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F140" t="n">
+        <v>35.1966</v>
+      </c>
+      <c r="G140" t="n">
+        <v>258237.1513000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F141" t="n">
+        <v>271.11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>258508.2613000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>23.5844</v>
+      </c>
+      <c r="G142" t="n">
+        <v>258484.6769000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29.9432</v>
+      </c>
+      <c r="G143" t="n">
+        <v>258454.7337000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>258454.8337000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>33.559</v>
+      </c>
+      <c r="G145" t="n">
+        <v>258421.2747000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>258421.3747000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18.3752</v>
+      </c>
+      <c r="G147" t="n">
+        <v>258402.9995000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>258403.0995000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18.6093</v>
+      </c>
+      <c r="G149" t="n">
+        <v>258384.4902000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>258384.5902000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F151" t="n">
+        <v>76.5899</v>
+      </c>
+      <c r="G151" t="n">
+        <v>258308.0003000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1977</v>
+      </c>
+      <c r="F152" t="n">
+        <v>220</v>
+      </c>
+      <c r="G152" t="n">
+        <v>258088.0003000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>258088.1003000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>258088.2003000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F155" t="n">
+        <v>176.62</v>
+      </c>
+      <c r="G155" t="n">
+        <v>257911.5803000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>257911.6803000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14.3246</v>
+      </c>
+      <c r="G157" t="n">
+        <v>257897.3557000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2040</v>
+        <v>2007</v>
       </c>
       <c r="C2" t="n">
-        <v>2040</v>
+        <v>2007</v>
       </c>
       <c r="D2" t="n">
-        <v>2040</v>
+        <v>2007</v>
       </c>
       <c r="E2" t="n">
-        <v>2040</v>
+        <v>2007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>490.7424</v>
       </c>
       <c r="G2" t="n">
-        <v>-2572.8391</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="C3" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="D3" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="E3" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="F3" t="n">
-        <v>19.7831</v>
+        <v>22.727</v>
       </c>
       <c r="G3" t="n">
-        <v>-2592.6222</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C4" t="n">
         <v>2007</v>
       </c>
       <c r="D4" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E4" t="n">
         <v>2007</v>
       </c>
       <c r="F4" t="n">
-        <v>659.6469</v>
+        <v>712.3203</v>
       </c>
       <c r="G4" t="n">
-        <v>-3252.2691</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="C5" t="n">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="D5" t="n">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="E5" t="n">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="F5" t="n">
-        <v>46.6</v>
+        <v>151.5662</v>
       </c>
       <c r="G5" t="n">
-        <v>-3205.669100000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="E6" t="n">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="F6" t="n">
-        <v>53.7482</v>
+        <v>109.6232</v>
       </c>
       <c r="G6" t="n">
-        <v>-3205.669100000001</v>
+        <v>-3654.598799999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,273 +611,333 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2023</v>
+        <v>2003</v>
       </c>
       <c r="C7" t="n">
-        <v>2021</v>
+        <v>2003</v>
       </c>
       <c r="D7" t="n">
-        <v>2023</v>
+        <v>2003</v>
       </c>
       <c r="E7" t="n">
-        <v>2021</v>
+        <v>2003</v>
       </c>
       <c r="F7" t="n">
-        <v>266</v>
+        <v>64.7</v>
       </c>
       <c r="G7" t="n">
-        <v>-3471.669100000001</v>
+        <v>-3719.298799999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2015</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2038</v>
+        <v>2011</v>
       </c>
       <c r="C8" t="n">
-        <v>2038</v>
+        <v>1993</v>
       </c>
       <c r="D8" t="n">
-        <v>2038</v>
+        <v>2011</v>
       </c>
       <c r="E8" t="n">
-        <v>2038</v>
+        <v>1993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>106.5129</v>
       </c>
       <c r="G8" t="n">
-        <v>-3471.569100000001</v>
+        <v>-3825.811699999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="C9" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="D9" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="E9" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>-3471.469100000001</v>
+        <v>-3825.911699999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1993</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2045</v>
+        <v>1990</v>
       </c>
       <c r="C10" t="n">
-        <v>2045</v>
+        <v>1990</v>
       </c>
       <c r="D10" t="n">
-        <v>2045</v>
+        <v>1990</v>
       </c>
       <c r="E10" t="n">
-        <v>2045</v>
+        <v>1990</v>
       </c>
       <c r="F10" t="n">
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>-3471.369100000001</v>
+        <v>-3826.011699999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1991</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="C11" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="D11" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="E11" t="n">
-        <v>2039</v>
+        <v>2010</v>
       </c>
       <c r="F11" t="n">
-        <v>373.2121</v>
+        <v>64.7</v>
       </c>
       <c r="G11" t="n">
-        <v>-3844.581200000001</v>
+        <v>-3761.311699999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1990</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2039</v>
+        <v>1993</v>
       </c>
       <c r="C12" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="D12" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="E12" t="n">
-        <v>2039</v>
+        <v>1993</v>
       </c>
       <c r="F12" t="n">
-        <v>152.05</v>
+        <v>16.8551</v>
       </c>
       <c r="G12" t="n">
-        <v>-3844.581200000001</v>
+        <v>-3778.1668</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2011</v>
       </c>
       <c r="C13" t="n">
-        <v>2040</v>
+        <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>2040</v>
+        <v>2015</v>
       </c>
       <c r="E13" t="n">
-        <v>2040</v>
+        <v>2008</v>
       </c>
       <c r="F13" t="n">
-        <v>94.8473</v>
+        <v>280000</v>
       </c>
       <c r="G13" t="n">
-        <v>-3844.581200000001</v>
+        <v>276221.8332</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1993</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="C14" t="n">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="E14" t="n">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="F14" t="n">
-        <v>279</v>
+        <v>60000</v>
       </c>
       <c r="G14" t="n">
-        <v>-3565.581200000001</v>
+        <v>276221.8332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +946,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="n">
-        <v>2042</v>
+        <v>1999</v>
       </c>
       <c r="D15" t="n">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="E15" t="n">
-        <v>2042</v>
+        <v>1999</v>
       </c>
       <c r="F15" t="n">
-        <v>357.3464</v>
+        <v>441.9113</v>
       </c>
       <c r="G15" t="n">
-        <v>-3922.927600000001</v>
+        <v>275779.9219</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +988,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2053</v>
+        <v>2003</v>
       </c>
       <c r="C16" t="n">
-        <v>2053</v>
+        <v>2003</v>
       </c>
       <c r="D16" t="n">
-        <v>2053</v>
+        <v>2003</v>
       </c>
       <c r="E16" t="n">
-        <v>2053</v>
+        <v>2003</v>
       </c>
       <c r="F16" t="n">
-        <v>339.4791</v>
+        <v>84.06140000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-3583.448500000001</v>
+        <v>275863.9833</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1030,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2036</v>
+        <v>1988</v>
       </c>
       <c r="C17" t="n">
-        <v>2036</v>
+        <v>1987</v>
       </c>
       <c r="D17" t="n">
-        <v>2036</v>
+        <v>1988</v>
       </c>
       <c r="E17" t="n">
-        <v>2036</v>
+        <v>1987</v>
       </c>
       <c r="F17" t="n">
-        <v>18.1578</v>
+        <v>36.73</v>
       </c>
       <c r="G17" t="n">
-        <v>-3601.606300000001</v>
+        <v>275827.2533</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1072,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2029</v>
+        <v>1991</v>
       </c>
       <c r="C18" t="n">
-        <v>2027</v>
+        <v>1987</v>
       </c>
       <c r="D18" t="n">
-        <v>2029</v>
+        <v>1991</v>
       </c>
       <c r="E18" t="n">
-        <v>2027</v>
+        <v>1987</v>
       </c>
       <c r="F18" t="n">
-        <v>210.7641</v>
+        <v>1613.6082</v>
       </c>
       <c r="G18" t="n">
-        <v>-3812.370400000001</v>
+        <v>275827.2533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1114,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2016</v>
+        <v>1985</v>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>1980</v>
       </c>
       <c r="D19" t="n">
-        <v>2016</v>
+        <v>1985</v>
       </c>
       <c r="E19" t="n">
-        <v>2016</v>
+        <v>1980</v>
       </c>
       <c r="F19" t="n">
-        <v>72.65000000000001</v>
+        <v>513.7182</v>
       </c>
       <c r="G19" t="n">
-        <v>-3885.020400000001</v>
+        <v>275313.5351</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1156,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2025</v>
+        <v>1980</v>
       </c>
       <c r="C20" t="n">
-        <v>2025</v>
+        <v>1980</v>
       </c>
       <c r="D20" t="n">
-        <v>2025</v>
+        <v>1980</v>
       </c>
       <c r="E20" t="n">
-        <v>2025</v>
+        <v>1980</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>1126.2884</v>
       </c>
       <c r="G20" t="n">
-        <v>-3884.920400000001</v>
+        <v>275313.5351</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1198,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2011</v>
+        <v>1973</v>
       </c>
       <c r="C21" t="n">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="D21" t="n">
-        <v>2011</v>
+        <v>1973</v>
       </c>
       <c r="E21" t="n">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="F21" t="n">
-        <v>345</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>-4229.920400000001</v>
+        <v>275313.4351000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1240,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>1980</v>
       </c>
       <c r="D22" t="n">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="E22" t="n">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>771</v>
       </c>
       <c r="G22" t="n">
-        <v>-4229.820400000001</v>
+        <v>276084.4351000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1282,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="C23" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="D23" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="E23" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="F23" t="n">
-        <v>18.4046</v>
+        <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>-4248.225</v>
+        <v>276084.3351000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1324,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2019</v>
+        <v>1983</v>
       </c>
       <c r="C24" t="n">
-        <v>2019</v>
+        <v>1973</v>
       </c>
       <c r="D24" t="n">
-        <v>2019</v>
+        <v>1983</v>
       </c>
       <c r="E24" t="n">
-        <v>2019</v>
+        <v>1973</v>
       </c>
       <c r="F24" t="n">
-        <v>116.67</v>
+        <v>8662.9648</v>
       </c>
       <c r="G24" t="n">
-        <v>-4131.555</v>
+        <v>267421.3703000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1366,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="C25" t="n">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="D25" t="n">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="E25" t="n">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>46.58</v>
       </c>
       <c r="G25" t="n">
-        <v>-4131.455</v>
+        <v>267467.9503000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1408,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="D26" t="n">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="E26" t="n">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>22.6533</v>
       </c>
       <c r="G26" t="n">
-        <v>-4631.455</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1450,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2030</v>
+        <v>1970</v>
       </c>
       <c r="C27" t="n">
-        <v>2025</v>
+        <v>1970</v>
       </c>
       <c r="D27" t="n">
-        <v>2030</v>
+        <v>1970</v>
       </c>
       <c r="E27" t="n">
-        <v>2025</v>
+        <v>1970</v>
       </c>
       <c r="F27" t="n">
-        <v>377.2282</v>
+        <v>8.705399999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-4254.2268</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1492,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="C28" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="D28" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="E28" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="F28" t="n">
-        <v>142.7507</v>
+        <v>31.3003</v>
       </c>
       <c r="G28" t="n">
-        <v>-4396.9775</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1534,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="C29" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="D29" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="E29" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="F29" t="n">
-        <v>13.5358</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>-4396.9775</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,142 +1576,170 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="C30" t="n">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="D30" t="n">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="E30" t="n">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="F30" t="n">
-        <v>18.15</v>
+        <v>12.4688</v>
       </c>
       <c r="G30" t="n">
-        <v>-4415.1275</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1965</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="C31" t="n">
-        <v>2010</v>
+        <v>1971</v>
       </c>
       <c r="D31" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="E31" t="n">
-        <v>2010</v>
+        <v>1971</v>
       </c>
       <c r="F31" t="n">
-        <v>1145.4</v>
+        <v>106.0358</v>
       </c>
       <c r="G31" t="n">
-        <v>-3269.7275</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1965</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="C32" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="D32" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="E32" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>63.44</v>
       </c>
       <c r="G32" t="n">
-        <v>-3229.7275</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2010</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+        <v>2015</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2011</v>
+        <v>1966</v>
       </c>
       <c r="C33" t="n">
-        <v>2010</v>
+        <v>1966</v>
       </c>
       <c r="D33" t="n">
-        <v>2011</v>
+        <v>1966</v>
       </c>
       <c r="E33" t="n">
-        <v>2010</v>
+        <v>1966</v>
       </c>
       <c r="F33" t="n">
-        <v>369.2679</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-3598.995399999999</v>
+        <v>267551.1328000001</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1546,41 +1748,42 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="K33" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="C34" t="n">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="D34" t="n">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="E34" t="n">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="F34" t="n">
-        <v>30.5321</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>-3568.463299999999</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1589,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2010</v>
+        <v>1966</v>
       </c>
       <c r="K34" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1602,28 +1805,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C35" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="D35" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="E35" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="F35" t="n">
-        <v>35.6001</v>
+        <v>0.1</v>
       </c>
       <c r="G35" t="n">
-        <v>-3604.0634</v>
+        <v>267551.3328000001</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1632,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="K35" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1645,28 +1849,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="C36" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="D36" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="E36" t="n">
-        <v>2006</v>
+        <v>1978</v>
       </c>
       <c r="F36" t="n">
-        <v>201.6212</v>
+        <v>80.2941</v>
       </c>
       <c r="G36" t="n">
-        <v>-3805.6846</v>
+        <v>267471.0387000001</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1675,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="K36" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1688,28 +1893,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="C37" t="n">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="D37" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="E37" t="n">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="F37" t="n">
-        <v>1125</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>-3805.6846</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1718,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="K37" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1731,28 +1937,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="C38" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="D38" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="E38" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="F38" t="n">
-        <v>32.7874</v>
+        <v>321.2942</v>
       </c>
       <c r="G38" t="n">
-        <v>-3772.897199999999</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1761,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="K38" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1774,28 +1981,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="C39" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="D39" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="E39" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>97.82989999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-3772.897199999999</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1804,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="K39" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1817,40 +2025,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="C40" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="D40" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E40" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-3782.897199999999</v>
+        <v>267471.2387</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2008</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1860,40 +2067,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="C41" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="D41" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E41" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>-3742.897199999999</v>
+        <v>267371.2387</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>2007</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1903,28 +2109,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="C42" t="n">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="D42" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E42" t="n">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="F42" t="n">
-        <v>21.3248</v>
+        <v>2299.9306</v>
       </c>
       <c r="G42" t="n">
-        <v>-3764.221999999999</v>
+        <v>265071.3081</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1934,7 +2141,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1944,28 +2151,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="C43" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="D43" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E43" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="F43" t="n">
-        <v>696.9299999999999</v>
+        <v>17.6</v>
       </c>
       <c r="G43" t="n">
-        <v>-3764.221999999999</v>
+        <v>265088.9081</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1975,7 +2183,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1985,28 +2193,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="C44" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="D44" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="E44" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="F44" t="n">
-        <v>490.7424</v>
+        <v>393.2961</v>
       </c>
       <c r="G44" t="n">
-        <v>-3764.221999999999</v>
+        <v>264695.612</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2016,7 +2225,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2026,28 +2235,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="C45" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="D45" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="E45" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="F45" t="n">
-        <v>22.727</v>
+        <v>169.8745</v>
       </c>
       <c r="G45" t="n">
-        <v>-3764.221999999999</v>
+        <v>264695.612</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2057,7 +2267,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2067,40 +2277,39 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C46" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D46" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E46" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="F46" t="n">
-        <v>712.3203</v>
+        <v>0.11</v>
       </c>
       <c r="G46" t="n">
-        <v>-3764.221999999999</v>
+        <v>264695.722</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>2007</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2110,40 +2319,39 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D47" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E47" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F47" t="n">
-        <v>151.5662</v>
+        <v>0.11</v>
       </c>
       <c r="G47" t="n">
-        <v>-3764.221999999999</v>
+        <v>264695.832</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>2007</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2153,40 +2361,39 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="C48" t="n">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="D48" t="n">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="E48" t="n">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="F48" t="n">
-        <v>109.6232</v>
+        <v>955</v>
       </c>
       <c r="G48" t="n">
-        <v>-3654.598799999999</v>
+        <v>265650.832</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>2007</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2196,40 +2403,39 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C49" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D49" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E49" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F49" t="n">
-        <v>64.7</v>
+        <v>199.3106</v>
       </c>
       <c r="G49" t="n">
-        <v>-3719.298799999999</v>
+        <v>265850.1426</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2239,28 +2445,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C50" t="n">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="D50" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E50" t="n">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="F50" t="n">
-        <v>106.5129</v>
+        <v>160</v>
       </c>
       <c r="G50" t="n">
-        <v>-3825.811699999999</v>
+        <v>266010.1426</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2270,7 +2477,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2280,28 +2487,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="C51" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="D51" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="E51" t="n">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="F51" t="n">
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>-3825.911699999999</v>
+        <v>266010.2426</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2311,7 +2519,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2321,28 +2529,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="C52" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="D52" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="E52" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>52.1796</v>
       </c>
       <c r="G52" t="n">
-        <v>-3826.011699999999</v>
+        <v>265958.063</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2352,7 +2561,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2362,6 +2571,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2380,22 +2590,20 @@
         <v>2010</v>
       </c>
       <c r="F53" t="n">
-        <v>64.7</v>
+        <v>257.575</v>
       </c>
       <c r="G53" t="n">
-        <v>-3761.311699999999</v>
+        <v>266215.638</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1990</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2405,28 +2613,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="C54" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="D54" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="E54" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="F54" t="n">
-        <v>16.8551</v>
+        <v>276.7652</v>
       </c>
       <c r="G54" t="n">
-        <v>-3778.1668</v>
+        <v>266215.638</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2436,7 +2645,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2446,28 +2655,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C55" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D55" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E55" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F55" t="n">
-        <v>280000</v>
+        <v>57.228</v>
       </c>
       <c r="G55" t="n">
-        <v>276221.8332</v>
+        <v>266215.638</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2477,7 +2687,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2487,28 +2697,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="C56" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="D56" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="E56" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="F56" t="n">
-        <v>60000</v>
+        <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>276221.8332</v>
+        <v>266215.5380000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2518,7 +2729,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2528,28 +2739,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="D57" t="n">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="E57" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="F57" t="n">
-        <v>441.9113</v>
+        <v>0.11</v>
       </c>
       <c r="G57" t="n">
-        <v>275779.9219</v>
+        <v>266215.648</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2559,7 +2771,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2569,28 +2781,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C58" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D58" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E58" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="F58" t="n">
-        <v>84.06140000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>275863.9833</v>
+        <v>266215.5480000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2600,7 +2813,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2610,28 +2823,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="C59" t="n">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="D59" t="n">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="E59" t="n">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="F59" t="n">
-        <v>36.73</v>
+        <v>387.7672</v>
       </c>
       <c r="G59" t="n">
-        <v>275827.2533</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2641,7 +2855,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2651,28 +2865,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="C60" t="n">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="D60" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="E60" t="n">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="F60" t="n">
-        <v>1613.6082</v>
+        <v>89574.5232</v>
       </c>
       <c r="G60" t="n">
-        <v>275827.2533</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2682,7 +2897,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2692,28 +2907,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="C61" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="D61" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="E61" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="F61" t="n">
-        <v>513.7182</v>
+        <v>65920.624</v>
       </c>
       <c r="G61" t="n">
-        <v>275313.5351</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2723,7 +2939,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2733,28 +2949,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="C62" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="D62" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="E62" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="F62" t="n">
-        <v>1126.2884</v>
+        <v>25310.412</v>
       </c>
       <c r="G62" t="n">
-        <v>275313.5351</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2764,7 +2981,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2774,28 +2991,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="C63" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="D63" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="E63" t="n">
-        <v>1973</v>
+        <v>1999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>79206.4752</v>
       </c>
       <c r="G63" t="n">
-        <v>275313.4351000001</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2805,7 +3023,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2815,28 +3033,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1974</v>
+        <v>2007</v>
       </c>
       <c r="C64" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="D64" t="n">
-        <v>1990</v>
+        <v>2007</v>
       </c>
       <c r="E64" t="n">
-        <v>1974</v>
+        <v>2002</v>
       </c>
       <c r="F64" t="n">
-        <v>771</v>
+        <v>79802.0096</v>
       </c>
       <c r="G64" t="n">
-        <v>276084.4351000001</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2846,7 +3065,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2856,28 +3075,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="C65" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="D65" t="n">
-        <v>1979</v>
+        <v>2008</v>
       </c>
       <c r="E65" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1</v>
+        <v>78823.0252</v>
       </c>
       <c r="G65" t="n">
-        <v>276084.3351000001</v>
+        <v>266603.3152000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2887,7 +3107,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2897,28 +3117,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1983</v>
+        <v>2007</v>
       </c>
       <c r="C66" t="n">
-        <v>1973</v>
+        <v>2006</v>
       </c>
       <c r="D66" t="n">
-        <v>1983</v>
+        <v>2056</v>
       </c>
       <c r="E66" t="n">
-        <v>1973</v>
+        <v>2006</v>
       </c>
       <c r="F66" t="n">
-        <v>8662.9648</v>
+        <v>9311.3938</v>
       </c>
       <c r="G66" t="n">
-        <v>267421.3703000001</v>
+        <v>257291.9214000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2928,7 +3149,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2938,28 +3159,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="C67" t="n">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="E67" t="n">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="F67" t="n">
-        <v>46.58</v>
+        <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>267467.9503000001</v>
+        <v>257292.0214000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2969,7 +3191,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2979,28 +3201,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="C68" t="n">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="D68" t="n">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="E68" t="n">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="F68" t="n">
-        <v>22.6533</v>
+        <v>114.641</v>
       </c>
       <c r="G68" t="n">
-        <v>267445.2970000001</v>
+        <v>257177.3804000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3010,7 +3233,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3020,28 +3243,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="C69" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="E69" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="F69" t="n">
-        <v>8.705399999999999</v>
+        <v>58.0102</v>
       </c>
       <c r="G69" t="n">
-        <v>267445.2970000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3051,7 +3275,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3061,28 +3285,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="C70" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="D70" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="E70" t="n">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="F70" t="n">
-        <v>31.3003</v>
+        <v>85.79179999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>267445.2970000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3092,7 +3317,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3102,28 +3327,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="C71" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="E71" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1</v>
+        <v>271.61</v>
       </c>
       <c r="G71" t="n">
-        <v>267445.1970000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3133,7 +3359,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3143,28 +3369,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="C72" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="E72" t="n">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="F72" t="n">
-        <v>12.4688</v>
+        <v>340</v>
       </c>
       <c r="G72" t="n">
-        <v>267445.1970000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3174,7 +3401,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3184,192 +3411,179 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="C73" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="E73" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="F73" t="n">
-        <v>106.0358</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>267551.2328000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9940074441687344</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="C74" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="D74" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="E74" t="n">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="F74" t="n">
-        <v>63.44</v>
+        <v>77.37</v>
       </c>
       <c r="G74" t="n">
-        <v>267551.2328000001</v>
+        <v>257235.3906000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1966</v>
+        <v>2014</v>
       </c>
       <c r="C75" t="n">
-        <v>1966</v>
+        <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>1966</v>
+        <v>2016</v>
       </c>
       <c r="E75" t="n">
-        <v>1966</v>
+        <v>2013</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>62.7899</v>
       </c>
       <c r="G75" t="n">
-        <v>267551.1328000001</v>
+        <v>257298.1805000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="C76" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="E76" t="n">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1</v>
+        <v>68.66</v>
       </c>
       <c r="G76" t="n">
-        <v>267551.2328000001</v>
+        <v>257229.5205000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="C77" t="n">
-        <v>1980</v>
+        <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="E77" t="n">
-        <v>1980</v>
+        <v>2014</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1</v>
+        <v>168.6433</v>
       </c>
       <c r="G77" t="n">
-        <v>267551.3328000001</v>
+        <v>257398.1638000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3378,39 +3592,34 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1978</v>
+        <v>2052</v>
       </c>
       <c r="C78" t="n">
-        <v>1978</v>
+        <v>2037</v>
       </c>
       <c r="D78" t="n">
-        <v>1978</v>
+        <v>2052</v>
       </c>
       <c r="E78" t="n">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="F78" t="n">
-        <v>80.2941</v>
+        <v>397.1833</v>
       </c>
       <c r="G78" t="n">
-        <v>267471.0387000001</v>
+        <v>257795.3471000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3419,39 +3628,34 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1982</v>
+        <v>2065</v>
       </c>
       <c r="C79" t="n">
-        <v>1982</v>
+        <v>2065</v>
       </c>
       <c r="D79" t="n">
-        <v>1982</v>
+        <v>2065</v>
       </c>
       <c r="E79" t="n">
-        <v>1982</v>
+        <v>2065</v>
       </c>
       <c r="F79" t="n">
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>267471.1387000001</v>
+        <v>257795.4471000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3460,285 +3664,250 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="C80" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>1983</v>
+        <v>2013</v>
       </c>
       <c r="E80" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="F80" t="n">
-        <v>321.2942</v>
+        <v>30.1083</v>
       </c>
       <c r="G80" t="n">
-        <v>267471.1387000001</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1982</v>
+        <v>2014</v>
       </c>
       <c r="C81" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>1982</v>
+        <v>2014</v>
       </c>
       <c r="E81" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="F81" t="n">
-        <v>97.82989999999999</v>
+        <v>306.04</v>
       </c>
       <c r="G81" t="n">
-        <v>267471.1387000001</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C82" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D82" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E82" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="F82" t="n">
         <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>267471.2387</v>
+        <v>257765.2388000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="C83" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="D83" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="E83" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>267371.2387</v>
+        <v>257765.3388000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="C84" t="n">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="D84" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E84" t="n">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="F84" t="n">
-        <v>2299.9306</v>
+        <v>16.9515</v>
       </c>
       <c r="G84" t="n">
-        <v>265071.3081</v>
+        <v>257748.3873000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="C85" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="D85" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="E85" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="F85" t="n">
-        <v>17.6</v>
+        <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>265088.9081</v>
+        <v>257748.4873000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="C86" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D86" t="n">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="E86" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="F86" t="n">
-        <v>393.2961</v>
+        <v>149.768</v>
       </c>
       <c r="G86" t="n">
-        <v>264695.612</v>
+        <v>257598.7193000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3747,39 +3916,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="C87" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D87" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="E87" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="F87" t="n">
-        <v>169.8745</v>
+        <v>36.6586</v>
       </c>
       <c r="G87" t="n">
-        <v>264695.612</v>
+        <v>257598.7193000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3788,39 +3952,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C88" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D88" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E88" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11</v>
+        <v>280.52</v>
       </c>
       <c r="G88" t="n">
-        <v>264695.722</v>
+        <v>257879.2393000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3829,39 +3988,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="C89" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D89" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="E89" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="F89" t="n">
-        <v>0.11</v>
+        <v>59.7963</v>
       </c>
       <c r="G89" t="n">
-        <v>264695.832</v>
+        <v>257819.4430000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3870,39 +4024,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C90" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="D90" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E90" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="F90" t="n">
-        <v>955</v>
+        <v>192.9122</v>
       </c>
       <c r="G90" t="n">
-        <v>265650.832</v>
+        <v>257819.4430000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3911,39 +4060,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C91" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="D91" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E91" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="F91" t="n">
-        <v>199.3106</v>
+        <v>0.0001</v>
       </c>
       <c r="G91" t="n">
-        <v>265850.1426</v>
+        <v>257819.4430000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3952,39 +4096,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C92" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D92" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E92" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>0.12</v>
       </c>
       <c r="G92" t="n">
-        <v>266010.1426</v>
+        <v>257819.5630000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3993,39 +4132,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C93" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D93" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E93" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1</v>
+        <v>118.8097</v>
       </c>
       <c r="G93" t="n">
-        <v>266010.2426</v>
+        <v>257700.7533000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4034,39 +4168,34 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C94" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E94" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F94" t="n">
-        <v>52.1796</v>
+        <v>1254.0603</v>
       </c>
       <c r="G94" t="n">
-        <v>265958.063</v>
+        <v>258954.8136000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4075,39 +4204,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C95" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D95" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E95" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="F95" t="n">
-        <v>257.575</v>
+        <v>682.5657</v>
       </c>
       <c r="G95" t="n">
-        <v>266215.638</v>
+        <v>258272.2479000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4116,39 +4240,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C96" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D96" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E96" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="F96" t="n">
-        <v>276.7652</v>
+        <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>266215.638</v>
+        <v>258272.2479000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4157,39 +4276,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C97" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D97" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E97" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="F97" t="n">
-        <v>57.228</v>
+        <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>266215.638</v>
+        <v>258272.3479000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4198,39 +4312,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C98" t="n">
         <v>1998</v>
       </c>
       <c r="D98" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E98" t="n">
         <v>1998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>35.1966</v>
       </c>
       <c r="G98" t="n">
-        <v>266215.5380000001</v>
+        <v>258237.1513000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4239,39 +4348,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C99" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D99" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E99" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11</v>
+        <v>271.11</v>
       </c>
       <c r="G99" t="n">
-        <v>266215.648</v>
+        <v>258508.2613000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4280,39 +4384,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C100" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D100" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E100" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1</v>
+        <v>23.5844</v>
       </c>
       <c r="G100" t="n">
-        <v>266215.5480000001</v>
+        <v>258484.6769000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4321,80 +4420,70 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="C101" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D101" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="E101" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F101" t="n">
-        <v>387.7672</v>
+        <v>29.9432</v>
       </c>
       <c r="G101" t="n">
-        <v>266603.3152000001</v>
+        <v>258454.7337000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C102" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E102" t="n">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="F102" t="n">
-        <v>89574.5232</v>
+        <v>0.1</v>
       </c>
       <c r="G102" t="n">
-        <v>266603.3152000001</v>
+        <v>258454.8337000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4403,408 +4492,358 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C103" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D103" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E103" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F103" t="n">
-        <v>65920.624</v>
+        <v>33.559</v>
       </c>
       <c r="G103" t="n">
-        <v>266603.3152000001</v>
+        <v>258421.2747000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C104" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D104" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E104" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="F104" t="n">
-        <v>25310.412</v>
+        <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>266603.3152000001</v>
+        <v>258421.3747000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="C105" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="D105" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="E105" t="n">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="F105" t="n">
-        <v>79206.4752</v>
+        <v>18.3752</v>
       </c>
       <c r="G105" t="n">
-        <v>266603.3152000001</v>
+        <v>258402.9995000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C106" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="D106" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E106" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F106" t="n">
-        <v>79802.0096</v>
+        <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>266603.3152000001</v>
+        <v>258403.0995000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="C107" t="n">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="D107" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="E107" t="n">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="F107" t="n">
-        <v>78823.0252</v>
+        <v>18.6093</v>
       </c>
       <c r="G107" t="n">
-        <v>266603.3152000001</v>
+        <v>258384.4902000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C108" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D108" t="n">
-        <v>2056</v>
+        <v>2010</v>
       </c>
       <c r="E108" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F108" t="n">
-        <v>9311.3938</v>
+        <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>257291.9214000001</v>
+        <v>258384.5902000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="C109" t="n">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="D109" t="n">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="E109" t="n">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1</v>
+        <v>76.5899</v>
       </c>
       <c r="G109" t="n">
-        <v>257292.0214000001</v>
+        <v>258308.0003000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="C110" t="n">
-        <v>2006</v>
+        <v>1977</v>
       </c>
       <c r="D110" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="E110" t="n">
-        <v>2006</v>
+        <v>1977</v>
       </c>
       <c r="F110" t="n">
-        <v>114.641</v>
+        <v>220</v>
       </c>
       <c r="G110" t="n">
-        <v>257177.3804000001</v>
+        <v>258088.0003000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="C111" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="D111" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="E111" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="F111" t="n">
-        <v>58.0102</v>
+        <v>0.1</v>
       </c>
       <c r="G111" t="n">
-        <v>257235.3906000001</v>
+        <v>258088.1003000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C112" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D112" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="E112" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="F112" t="n">
-        <v>85.79179999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G112" t="n">
-        <v>257235.3906000001</v>
+        <v>258088.2003000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4813,39 +4852,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="C113" t="n">
-        <v>2013</v>
+        <v>1988</v>
       </c>
       <c r="D113" t="n">
-        <v>2013</v>
+        <v>1988</v>
       </c>
       <c r="E113" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F113" t="n">
-        <v>271.61</v>
+        <v>176.62</v>
       </c>
       <c r="G113" t="n">
-        <v>257235.3906000001</v>
+        <v>257911.5803000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4854,39 +4888,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="C114" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="D114" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="E114" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="F114" t="n">
-        <v>340</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>257235.3906000001</v>
+        <v>257911.6803000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4895,1570 +4924,48 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="C115" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="D115" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="E115" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="F115" t="n">
-        <v>90.98999999999999</v>
+        <v>14.3246</v>
       </c>
       <c r="G115" t="n">
-        <v>257235.3906000001</v>
+        <v>257897.3557000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F116" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="G116" t="n">
-        <v>257235.3906000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F117" t="n">
-        <v>62.7899</v>
-      </c>
-      <c r="G117" t="n">
-        <v>257298.1805000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F118" t="n">
-        <v>68.66</v>
-      </c>
-      <c r="G118" t="n">
-        <v>257229.5205000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F119" t="n">
-        <v>168.6433</v>
-      </c>
-      <c r="G119" t="n">
-        <v>257398.1638000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2052</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2037</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2052</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F120" t="n">
-        <v>397.1833</v>
-      </c>
-      <c r="G120" t="n">
-        <v>257795.3471000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2065</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2065</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2065</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2065</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>257795.4471000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F122" t="n">
-        <v>30.1083</v>
-      </c>
-      <c r="G122" t="n">
-        <v>257765.3388000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2010</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>0.9964925373134329</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F123" t="n">
-        <v>306.04</v>
-      </c>
-      <c r="G123" t="n">
-        <v>257765.3388000001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G124" t="n">
-        <v>257765.2388000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>257765.3388000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F126" t="n">
-        <v>16.9515</v>
-      </c>
-      <c r="G126" t="n">
-        <v>257748.3873000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>257748.4873000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F128" t="n">
-        <v>149.768</v>
-      </c>
-      <c r="G128" t="n">
-        <v>257598.7193000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F129" t="n">
-        <v>36.6586</v>
-      </c>
-      <c r="G129" t="n">
-        <v>257598.7193000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F130" t="n">
-        <v>280.52</v>
-      </c>
-      <c r="G130" t="n">
-        <v>257879.2393000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F131" t="n">
-        <v>59.7963</v>
-      </c>
-      <c r="G131" t="n">
-        <v>257819.4430000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F132" t="n">
-        <v>192.9122</v>
-      </c>
-      <c r="G132" t="n">
-        <v>257819.4430000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G133" t="n">
-        <v>257819.4430000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G134" t="n">
-        <v>257819.5630000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F135" t="n">
-        <v>118.8097</v>
-      </c>
-      <c r="G135" t="n">
-        <v>257700.7533000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2011</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1254.0603</v>
-      </c>
-      <c r="G136" t="n">
-        <v>258954.8136000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F137" t="n">
-        <v>682.5657</v>
-      </c>
-      <c r="G137" t="n">
-        <v>258272.2479000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G138" t="n">
-        <v>258272.2479000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>258272.3479000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F140" t="n">
-        <v>35.1966</v>
-      </c>
-      <c r="G140" t="n">
-        <v>258237.1513000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2009</v>
-      </c>
-      <c r="F141" t="n">
-        <v>271.11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>258508.2613000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>23.5844</v>
-      </c>
-      <c r="G142" t="n">
-        <v>258484.6769000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F143" t="n">
-        <v>29.9432</v>
-      </c>
-      <c r="G143" t="n">
-        <v>258454.7337000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>258454.8337000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F145" t="n">
-        <v>33.559</v>
-      </c>
-      <c r="G145" t="n">
-        <v>258421.2747000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>258421.3747000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1989</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1989</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1989</v>
-      </c>
-      <c r="F147" t="n">
-        <v>18.3752</v>
-      </c>
-      <c r="G147" t="n">
-        <v>258402.9995000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>258403.0995000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F149" t="n">
-        <v>18.6093</v>
-      </c>
-      <c r="G149" t="n">
-        <v>258384.4902000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2010</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>258384.5902000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1991</v>
-      </c>
-      <c r="F151" t="n">
-        <v>76.5899</v>
-      </c>
-      <c r="G151" t="n">
-        <v>258308.0003000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1977</v>
-      </c>
-      <c r="F152" t="n">
-        <v>220</v>
-      </c>
-      <c r="G152" t="n">
-        <v>258088.0003000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G153" t="n">
-        <v>258088.1003000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>258088.2003000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F155" t="n">
-        <v>176.62</v>
-      </c>
-      <c r="G155" t="n">
-        <v>257911.5803000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>257911.6803000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F157" t="n">
-        <v>14.3246</v>
-      </c>
-      <c r="G157" t="n">
-        <v>257897.3557000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="C2" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="D2" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="E2" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="F2" t="n">
-        <v>490.7424</v>
+        <v>88.401</v>
       </c>
       <c r="G2" t="n">
-        <v>-3764.221999999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="C3" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="D3" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="E3" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="F3" t="n">
-        <v>22.727</v>
+        <v>830</v>
       </c>
       <c r="G3" t="n">
-        <v>-3764.221999999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="C4" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="D4" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="E4" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="F4" t="n">
-        <v>712.3203</v>
+        <v>746.4181</v>
       </c>
       <c r="G4" t="n">
-        <v>-3764.221999999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="C5" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="D5" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="E5" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="F5" t="n">
-        <v>151.5662</v>
+        <v>69.5599</v>
       </c>
       <c r="G5" t="n">
-        <v>-3764.221999999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2013</v>
+        <v>2041</v>
       </c>
       <c r="C6" t="n">
-        <v>2015</v>
+        <v>2041</v>
       </c>
       <c r="D6" t="n">
-        <v>2016</v>
+        <v>2041</v>
       </c>
       <c r="E6" t="n">
-        <v>2013</v>
+        <v>2041</v>
       </c>
       <c r="F6" t="n">
-        <v>109.6232</v>
+        <v>61.85</v>
       </c>
       <c r="G6" t="n">
-        <v>-3654.598799999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,35 +618,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2003</v>
+        <v>2041</v>
       </c>
       <c r="C7" t="n">
-        <v>2003</v>
+        <v>2041</v>
       </c>
       <c r="D7" t="n">
-        <v>2003</v>
+        <v>2041</v>
       </c>
       <c r="E7" t="n">
-        <v>2003</v>
+        <v>2041</v>
       </c>
       <c r="F7" t="n">
-        <v>64.7</v>
+        <v>81.67</v>
       </c>
       <c r="G7" t="n">
-        <v>-3719.298799999999</v>
+        <v>-2047.7055</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -658,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2011</v>
+        <v>2044</v>
       </c>
       <c r="C8" t="n">
-        <v>1993</v>
+        <v>2044</v>
       </c>
       <c r="D8" t="n">
-        <v>2011</v>
+        <v>2044</v>
       </c>
       <c r="E8" t="n">
-        <v>1993</v>
+        <v>2041</v>
       </c>
       <c r="F8" t="n">
-        <v>106.5129</v>
+        <v>309.5199</v>
       </c>
       <c r="G8" t="n">
-        <v>-3825.811699999999</v>
+        <v>-1738.1856</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2003</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1991</v>
+        <v>2042</v>
       </c>
       <c r="C9" t="n">
-        <v>1991</v>
+        <v>2041</v>
       </c>
       <c r="D9" t="n">
-        <v>1991</v>
+        <v>2042</v>
       </c>
       <c r="E9" t="n">
-        <v>1991</v>
+        <v>2041</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>185.0611</v>
       </c>
       <c r="G9" t="n">
-        <v>-3825.911699999999</v>
+        <v>-1923.2467</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -746,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C10" t="n">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="D10" t="n">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="E10" t="n">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>318.33</v>
       </c>
       <c r="G10" t="n">
-        <v>-3826.011699999999</v>
+        <v>-2241.5767</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1991</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -790,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="C11" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="D11" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="E11" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="F11" t="n">
-        <v>64.7</v>
+        <v>28.92</v>
       </c>
       <c r="G11" t="n">
-        <v>-3761.311699999999</v>
+        <v>-2241.5767</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1990</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -834,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="C12" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="D12" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="E12" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="F12" t="n">
-        <v>16.8551</v>
+        <v>73.65770000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-3778.1668</v>
+        <v>-2241.5767</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2010</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -878,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2011</v>
+        <v>2026</v>
       </c>
       <c r="C13" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>2015</v>
+        <v>2026</v>
       </c>
       <c r="E13" t="n">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F13" t="n">
-        <v>280000</v>
+        <v>390.0197</v>
       </c>
       <c r="G13" t="n">
-        <v>276221.8332</v>
+        <v>-2631.5964</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -922,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="C14" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D14" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E14" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>60000</v>
+        <v>135.9967</v>
       </c>
       <c r="G14" t="n">
-        <v>276221.8332</v>
+        <v>-2495.5997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -946,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -967,19 +909,19 @@
         <v>2024</v>
       </c>
       <c r="C15" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="n">
         <v>2024</v>
       </c>
       <c r="E15" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="F15" t="n">
-        <v>441.9113</v>
+        <v>18.7189</v>
       </c>
       <c r="G15" t="n">
-        <v>275779.9219</v>
+        <v>-2476.8808</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -988,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="C16" t="n">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="D16" t="n">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="E16" t="n">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="F16" t="n">
-        <v>84.06140000000001</v>
+        <v>10.9234</v>
       </c>
       <c r="G16" t="n">
-        <v>275863.9833</v>
+        <v>-2465.9574</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1030,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1048,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1988</v>
+        <v>2043</v>
       </c>
       <c r="C17" t="n">
-        <v>1987</v>
+        <v>2043</v>
       </c>
       <c r="D17" t="n">
-        <v>1988</v>
+        <v>2043</v>
       </c>
       <c r="E17" t="n">
-        <v>1987</v>
+        <v>2043</v>
       </c>
       <c r="F17" t="n">
-        <v>36.73</v>
+        <v>227.5391</v>
       </c>
       <c r="G17" t="n">
-        <v>275827.2533</v>
+        <v>-2238.4183</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1072,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1090,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1991</v>
+        <v>2030</v>
       </c>
       <c r="C18" t="n">
-        <v>1987</v>
+        <v>2030</v>
       </c>
       <c r="D18" t="n">
-        <v>1991</v>
+        <v>2030</v>
       </c>
       <c r="E18" t="n">
-        <v>1987</v>
+        <v>2030</v>
       </c>
       <c r="F18" t="n">
-        <v>1613.6082</v>
+        <v>16.79</v>
       </c>
       <c r="G18" t="n">
-        <v>275827.2533</v>
+        <v>-2255.2083</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1114,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1132,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1985</v>
+        <v>2042</v>
       </c>
       <c r="C19" t="n">
-        <v>1980</v>
+        <v>2043</v>
       </c>
       <c r="D19" t="n">
-        <v>1985</v>
+        <v>2043</v>
       </c>
       <c r="E19" t="n">
-        <v>1980</v>
+        <v>2042</v>
       </c>
       <c r="F19" t="n">
-        <v>513.7182</v>
+        <v>135.253</v>
       </c>
       <c r="G19" t="n">
-        <v>275313.5351</v>
+        <v>-2119.9553</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1156,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1980</v>
+        <v>2031</v>
       </c>
       <c r="C20" t="n">
-        <v>1980</v>
+        <v>2053</v>
       </c>
       <c r="D20" t="n">
-        <v>1980</v>
+        <v>2053</v>
       </c>
       <c r="E20" t="n">
-        <v>1980</v>
+        <v>2031</v>
       </c>
       <c r="F20" t="n">
-        <v>1126.2884</v>
+        <v>65.0899</v>
       </c>
       <c r="G20" t="n">
-        <v>275313.5351</v>
+        <v>-2054.8654</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1198,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1216,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1973</v>
+        <v>2030</v>
       </c>
       <c r="C21" t="n">
-        <v>1973</v>
+        <v>2030</v>
       </c>
       <c r="D21" t="n">
-        <v>1973</v>
+        <v>2030</v>
       </c>
       <c r="E21" t="n">
-        <v>1973</v>
+        <v>2030</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>18.771</v>
       </c>
       <c r="G21" t="n">
-        <v>275313.4351000001</v>
+        <v>-2073.6364</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1240,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1258,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1974</v>
+        <v>2024</v>
       </c>
       <c r="C22" t="n">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="D22" t="n">
-        <v>1990</v>
+        <v>2024</v>
       </c>
       <c r="E22" t="n">
-        <v>1974</v>
+        <v>2024</v>
       </c>
       <c r="F22" t="n">
-        <v>771</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>276084.4351000001</v>
+        <v>-2111.6364</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1282,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1300,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1979</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="n">
-        <v>1979</v>
+        <v>2024</v>
       </c>
       <c r="D23" t="n">
-        <v>1979</v>
+        <v>2024</v>
       </c>
       <c r="E23" t="n">
-        <v>1979</v>
+        <v>2024</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>26.69</v>
       </c>
       <c r="G23" t="n">
-        <v>276084.3351000001</v>
+        <v>-2111.6364</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1324,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="C24" t="n">
-        <v>1973</v>
+        <v>2029</v>
       </c>
       <c r="D24" t="n">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="E24" t="n">
-        <v>1973</v>
+        <v>2029</v>
       </c>
       <c r="F24" t="n">
-        <v>8662.9648</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
-        <v>267421.3703000001</v>
+        <v>-2111.5364</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1366,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1384,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="C25" t="n">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="D25" t="n">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="E25" t="n">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="F25" t="n">
-        <v>46.58</v>
+        <v>17.8939</v>
       </c>
       <c r="G25" t="n">
-        <v>267467.9503000001</v>
+        <v>-2129.4303</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1408,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1970</v>
+        <v>2028</v>
       </c>
       <c r="C26" t="n">
-        <v>1970</v>
+        <v>2028</v>
       </c>
       <c r="D26" t="n">
-        <v>1970</v>
+        <v>2028</v>
       </c>
       <c r="E26" t="n">
-        <v>1970</v>
+        <v>2028</v>
       </c>
       <c r="F26" t="n">
-        <v>22.6533</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>267445.2970000001</v>
+        <v>-2129.3303</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1450,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1468,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="C27" t="n">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="D27" t="n">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="E27" t="n">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="F27" t="n">
-        <v>8.705399999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G27" t="n">
-        <v>267445.2970000001</v>
+        <v>-2129.2303</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1492,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1970</v>
+        <v>2027</v>
       </c>
       <c r="C28" t="n">
-        <v>1970</v>
+        <v>2025</v>
       </c>
       <c r="D28" t="n">
-        <v>1970</v>
+        <v>2028</v>
       </c>
       <c r="E28" t="n">
-        <v>1970</v>
+        <v>2025</v>
       </c>
       <c r="F28" t="n">
-        <v>31.3003</v>
+        <v>153.7088</v>
       </c>
       <c r="G28" t="n">
-        <v>267445.2970000001</v>
+        <v>-2282.9391</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1534,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1552,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1965</v>
+        <v>2030</v>
       </c>
       <c r="C29" t="n">
-        <v>1965</v>
+        <v>2030</v>
       </c>
       <c r="D29" t="n">
-        <v>1965</v>
+        <v>2030</v>
       </c>
       <c r="E29" t="n">
-        <v>1965</v>
+        <v>2030</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>267445.1970000001</v>
+        <v>-2272.9391</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1576,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1594,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1965</v>
+        <v>2028</v>
       </c>
       <c r="C30" t="n">
-        <v>1965</v>
+        <v>2028</v>
       </c>
       <c r="D30" t="n">
-        <v>1965</v>
+        <v>2028</v>
       </c>
       <c r="E30" t="n">
-        <v>1965</v>
+        <v>2028</v>
       </c>
       <c r="F30" t="n">
-        <v>12.4688</v>
+        <v>300</v>
       </c>
       <c r="G30" t="n">
-        <v>267445.1970000001</v>
+        <v>-2572.9391</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1638,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1972</v>
+        <v>2040</v>
       </c>
       <c r="C31" t="n">
-        <v>1971</v>
+        <v>2040</v>
       </c>
       <c r="D31" t="n">
-        <v>1972</v>
+        <v>2040</v>
       </c>
       <c r="E31" t="n">
-        <v>1971</v>
+        <v>2040</v>
       </c>
       <c r="F31" t="n">
-        <v>106.0358</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>267551.2328000001</v>
+        <v>-2572.8391</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1971</v>
+        <v>2028</v>
       </c>
       <c r="C32" t="n">
-        <v>1971</v>
+        <v>2028</v>
       </c>
       <c r="D32" t="n">
-        <v>1971</v>
+        <v>2028</v>
       </c>
       <c r="E32" t="n">
-        <v>1971</v>
+        <v>2028</v>
       </c>
       <c r="F32" t="n">
-        <v>63.44</v>
+        <v>19.7831</v>
       </c>
       <c r="G32" t="n">
-        <v>267551.2328000001</v>
+        <v>-2592.6222</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1706,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1724,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1966</v>
+        <v>2008</v>
       </c>
       <c r="C33" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="D33" t="n">
-        <v>1966</v>
+        <v>2008</v>
       </c>
       <c r="E33" t="n">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>659.6469</v>
       </c>
       <c r="G33" t="n">
-        <v>267551.1328000001</v>
+        <v>-3252.2691</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1768,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1972</v>
+        <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>1972</v>
+        <v>2024</v>
       </c>
       <c r="D34" t="n">
-        <v>1972</v>
+        <v>2024</v>
       </c>
       <c r="E34" t="n">
-        <v>1972</v>
+        <v>2024</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>46.6</v>
       </c>
       <c r="G34" t="n">
-        <v>267551.2328000001</v>
+        <v>-3205.669100000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1966</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1812,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="D35" t="n">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="E35" t="n">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>53.7482</v>
       </c>
       <c r="G35" t="n">
-        <v>267551.3328000001</v>
+        <v>-3205.669100000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1856,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1978</v>
+        <v>2023</v>
       </c>
       <c r="C36" t="n">
-        <v>1978</v>
+        <v>2021</v>
       </c>
       <c r="D36" t="n">
-        <v>1978</v>
+        <v>2023</v>
       </c>
       <c r="E36" t="n">
-        <v>1978</v>
+        <v>2021</v>
       </c>
       <c r="F36" t="n">
-        <v>80.2941</v>
+        <v>266</v>
       </c>
       <c r="G36" t="n">
-        <v>267471.0387000001</v>
+        <v>-3471.669100000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1900,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1982</v>
+        <v>2038</v>
       </c>
       <c r="C37" t="n">
-        <v>1982</v>
+        <v>2038</v>
       </c>
       <c r="D37" t="n">
-        <v>1982</v>
+        <v>2038</v>
       </c>
       <c r="E37" t="n">
-        <v>1982</v>
+        <v>2038</v>
       </c>
       <c r="F37" t="n">
         <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>267471.1387000001</v>
+        <v>-3471.569100000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1944,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1982</v>
+        <v>2041</v>
       </c>
       <c r="C38" t="n">
-        <v>1982</v>
+        <v>2041</v>
       </c>
       <c r="D38" t="n">
-        <v>1983</v>
+        <v>2041</v>
       </c>
       <c r="E38" t="n">
-        <v>1982</v>
+        <v>2041</v>
       </c>
       <c r="F38" t="n">
-        <v>321.2942</v>
+        <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>267471.1387000001</v>
+        <v>-3471.469100000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1988,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1982</v>
+        <v>2045</v>
       </c>
       <c r="C39" t="n">
-        <v>1982</v>
+        <v>2045</v>
       </c>
       <c r="D39" t="n">
-        <v>1982</v>
+        <v>2045</v>
       </c>
       <c r="E39" t="n">
-        <v>1982</v>
+        <v>2045</v>
       </c>
       <c r="F39" t="n">
-        <v>97.82989999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>267471.1387000001</v>
+        <v>-3471.369100000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2032,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="C40" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="D40" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="E40" t="n">
-        <v>1996</v>
+        <v>2039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>373.2121</v>
       </c>
       <c r="G40" t="n">
-        <v>267471.2387</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2056,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2074,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1993</v>
+        <v>2039</v>
       </c>
       <c r="C41" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="D41" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="E41" t="n">
-        <v>1993</v>
+        <v>2039</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>152.05</v>
       </c>
       <c r="G41" t="n">
-        <v>267371.2387</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2098,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="C42" t="n">
-        <v>1984</v>
+        <v>2040</v>
       </c>
       <c r="D42" t="n">
-        <v>1999</v>
+        <v>2040</v>
       </c>
       <c r="E42" t="n">
-        <v>1984</v>
+        <v>2040</v>
       </c>
       <c r="F42" t="n">
-        <v>2299.9306</v>
+        <v>94.8473</v>
       </c>
       <c r="G42" t="n">
-        <v>265071.3081</v>
+        <v>-3844.581200000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2140,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1991</v>
+        <v>2043</v>
       </c>
       <c r="C43" t="n">
-        <v>1991</v>
+        <v>2043</v>
       </c>
       <c r="D43" t="n">
-        <v>1991</v>
+        <v>2043</v>
       </c>
       <c r="E43" t="n">
-        <v>1991</v>
+        <v>2043</v>
       </c>
       <c r="F43" t="n">
-        <v>17.6</v>
+        <v>279</v>
       </c>
       <c r="G43" t="n">
-        <v>265088.9081</v>
+        <v>-3565.581200000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2182,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1986</v>
+        <v>2042</v>
       </c>
       <c r="C44" t="n">
-        <v>1985</v>
+        <v>2042</v>
       </c>
       <c r="D44" t="n">
-        <v>1986</v>
+        <v>2042</v>
       </c>
       <c r="E44" t="n">
-        <v>1985</v>
+        <v>2042</v>
       </c>
       <c r="F44" t="n">
-        <v>393.2961</v>
+        <v>357.3464</v>
       </c>
       <c r="G44" t="n">
-        <v>264695.612</v>
+        <v>-3922.927600000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2224,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2242,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1985</v>
+        <v>2053</v>
       </c>
       <c r="C45" t="n">
-        <v>1985</v>
+        <v>2053</v>
       </c>
       <c r="D45" t="n">
-        <v>1985</v>
+        <v>2053</v>
       </c>
       <c r="E45" t="n">
-        <v>1985</v>
+        <v>2053</v>
       </c>
       <c r="F45" t="n">
-        <v>169.8745</v>
+        <v>339.4791</v>
       </c>
       <c r="G45" t="n">
-        <v>264695.612</v>
+        <v>-3583.448500000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2266,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1998</v>
+        <v>2036</v>
       </c>
       <c r="C46" t="n">
-        <v>1998</v>
+        <v>2036</v>
       </c>
       <c r="D46" t="n">
-        <v>1998</v>
+        <v>2036</v>
       </c>
       <c r="E46" t="n">
-        <v>1998</v>
+        <v>2036</v>
       </c>
       <c r="F46" t="n">
-        <v>0.11</v>
+        <v>18.1578</v>
       </c>
       <c r="G46" t="n">
-        <v>264695.722</v>
+        <v>-3601.606300000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2308,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2002</v>
+        <v>2029</v>
       </c>
       <c r="C47" t="n">
-        <v>2002</v>
+        <v>2027</v>
       </c>
       <c r="D47" t="n">
-        <v>2002</v>
+        <v>2029</v>
       </c>
       <c r="E47" t="n">
-        <v>2002</v>
+        <v>2027</v>
       </c>
       <c r="F47" t="n">
-        <v>0.11</v>
+        <v>210.7641</v>
       </c>
       <c r="G47" t="n">
-        <v>264695.832</v>
+        <v>-3812.370400000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2350,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C48" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E48" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="F48" t="n">
-        <v>955</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>265650.832</v>
+        <v>-3885.020400000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2392,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2410,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C49" t="n">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="D49" t="n">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="E49" t="n">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="F49" t="n">
-        <v>199.3106</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>265850.1426</v>
+        <v>-3884.920400000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2434,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2452,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C50" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D50" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E50" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F50" t="n">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="G50" t="n">
-        <v>266010.1426</v>
+        <v>-4229.920400000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2476,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2494,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C51" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E51" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="F51" t="n">
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>266010.2426</v>
+        <v>-4229.820400000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2518,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2536,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C52" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D52" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E52" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="F52" t="n">
-        <v>52.1796</v>
+        <v>18.4046</v>
       </c>
       <c r="G52" t="n">
-        <v>265958.063</v>
+        <v>-4248.225</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2560,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="D53" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E53" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F53" t="n">
-        <v>257.575</v>
+        <v>116.67</v>
       </c>
       <c r="G53" t="n">
-        <v>266215.638</v>
+        <v>-4131.555</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2602,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="C54" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D54" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="E54" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="F54" t="n">
-        <v>276.7652</v>
+        <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>266215.638</v>
+        <v>-4131.455</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2644,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="C55" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="D55" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E55" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F55" t="n">
-        <v>57.228</v>
+        <v>500</v>
       </c>
       <c r="G55" t="n">
-        <v>266215.638</v>
+        <v>-4631.455</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2686,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="C56" t="n">
-        <v>1998</v>
+        <v>2025</v>
       </c>
       <c r="D56" t="n">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="E56" t="n">
-        <v>1998</v>
+        <v>2025</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1</v>
+        <v>377.2282</v>
       </c>
       <c r="G56" t="n">
-        <v>266215.5380000001</v>
+        <v>-4254.2268</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2728,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C57" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E57" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="F57" t="n">
-        <v>0.11</v>
+        <v>142.7507</v>
       </c>
       <c r="G57" t="n">
-        <v>266215.648</v>
+        <v>-4396.9775</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2770,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2788,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="C58" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="E58" t="n">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>13.5358</v>
       </c>
       <c r="G58" t="n">
-        <v>266215.5480000001</v>
+        <v>-4396.9775</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2812,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C59" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D59" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E59" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F59" t="n">
-        <v>387.7672</v>
+        <v>18.15</v>
       </c>
       <c r="G59" t="n">
-        <v>266603.3152000001</v>
+        <v>-4415.1275</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2854,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C60" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D60" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E60" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F60" t="n">
-        <v>89574.5232</v>
+        <v>1145.4</v>
       </c>
       <c r="G60" t="n">
-        <v>266603.3152000001</v>
+        <v>-3269.7275</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2896,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C61" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E61" t="n">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="F61" t="n">
-        <v>65920.624</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>266603.3152000001</v>
+        <v>-3229.7275</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2938,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="C62" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D62" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E62" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F62" t="n">
-        <v>25310.412</v>
+        <v>369.2679</v>
       </c>
       <c r="G62" t="n">
-        <v>266603.3152000001</v>
+        <v>-3598.995399999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2980,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C63" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D63" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E63" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="F63" t="n">
-        <v>79206.4752</v>
+        <v>30.5321</v>
       </c>
       <c r="G63" t="n">
-        <v>266603.3152000001</v>
+        <v>-3568.463299999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3022,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3040,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C64" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D64" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E64" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="F64" t="n">
-        <v>79802.0096</v>
+        <v>35.6001</v>
       </c>
       <c r="G64" t="n">
-        <v>266603.3152000001</v>
+        <v>-3604.0634</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3064,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3088,16 +2712,16 @@
         <v>2007</v>
       </c>
       <c r="D65" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E65" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F65" t="n">
-        <v>78823.0252</v>
+        <v>201.6212</v>
       </c>
       <c r="G65" t="n">
-        <v>266603.3152000001</v>
+        <v>-3805.6846</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3106,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2015</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3124,36 +2742,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C66" t="n">
         <v>2007</v>
       </c>
-      <c r="C66" t="n">
-        <v>2006</v>
-      </c>
       <c r="D66" t="n">
-        <v>2056</v>
+        <v>2008</v>
       </c>
       <c r="E66" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F66" t="n">
-        <v>9311.3938</v>
+        <v>1125</v>
       </c>
       <c r="G66" t="n">
-        <v>257291.9214000001</v>
+        <v>-3805.6846</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J66" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -3166,22 +2784,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C67" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D67" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="E67" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1</v>
+        <v>32.7874</v>
       </c>
       <c r="G67" t="n">
-        <v>257292.0214000001</v>
+        <v>-3772.897199999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3190,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2015</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,33 +2824,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C68" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D68" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E68" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F68" t="n">
-        <v>114.641</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>257177.3804000001</v>
+        <v>-3772.897199999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J68" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,33 +2866,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C69" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D69" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E69" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F69" t="n">
-        <v>58.0102</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>257235.3906000001</v>
+        <v>-3782.897199999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J69" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,33 +2908,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C70" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E70" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F70" t="n">
-        <v>85.79179999999999</v>
+        <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>257235.3906000001</v>
+        <v>-3742.897199999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J70" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,22 +2950,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C71" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D71" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E71" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F71" t="n">
-        <v>271.61</v>
+        <v>21.3248</v>
       </c>
       <c r="G71" t="n">
-        <v>257235.3906000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3358,9 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2015</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,33 +2990,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C72" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D72" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E72" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F72" t="n">
-        <v>340</v>
+        <v>696.9299999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>257235.3906000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J72" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,40 +3032,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C73" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D73" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E73" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F73" t="n">
-        <v>90.98999999999999</v>
+        <v>490.7424</v>
       </c>
       <c r="G73" t="n">
-        <v>257235.3906000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0.9940074441687344</v>
+        <v>1</v>
       </c>
       <c r="N73" t="inlineStr"/>
     </row>
@@ -3460,32 +3074,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C74" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D74" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E74" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F74" t="n">
-        <v>77.37</v>
+        <v>22.727</v>
       </c>
       <c r="G74" t="n">
-        <v>257235.3906000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2007</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3496,32 +3116,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="C75" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D75" t="n">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E75" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F75" t="n">
-        <v>62.7899</v>
+        <v>712.3203</v>
       </c>
       <c r="G75" t="n">
-        <v>257298.1805000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2007</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3532,32 +3158,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C76" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D76" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E76" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F76" t="n">
-        <v>68.66</v>
+        <v>151.5662</v>
       </c>
       <c r="G76" t="n">
-        <v>257229.5205000001</v>
+        <v>-3764.221999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2007</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3568,32 +3200,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C77" t="n">
         <v>2015</v>
       </c>
-      <c r="C77" t="n">
-        <v>2014</v>
-      </c>
       <c r="D77" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E77" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F77" t="n">
-        <v>168.6433</v>
+        <v>109.6232</v>
       </c>
       <c r="G77" t="n">
-        <v>257398.1638000001</v>
+        <v>-3654.598799999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2007</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3242,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2052</v>
+        <v>2003</v>
       </c>
       <c r="C78" t="n">
-        <v>2037</v>
+        <v>2003</v>
       </c>
       <c r="D78" t="n">
-        <v>2052</v>
+        <v>2003</v>
       </c>
       <c r="E78" t="n">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="F78" t="n">
-        <v>397.1833</v>
+        <v>64.7</v>
       </c>
       <c r="G78" t="n">
-        <v>257795.3471000001</v>
+        <v>-3719.298799999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2015</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +3284,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2065</v>
+        <v>2011</v>
       </c>
       <c r="C79" t="n">
-        <v>2065</v>
+        <v>1993</v>
       </c>
       <c r="D79" t="n">
-        <v>2065</v>
+        <v>2011</v>
       </c>
       <c r="E79" t="n">
-        <v>2065</v>
+        <v>1993</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1</v>
+        <v>106.5129</v>
       </c>
       <c r="G79" t="n">
-        <v>257795.4471000001</v>
+        <v>-3825.811699999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2003</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3326,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="C80" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="D80" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="E80" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="F80" t="n">
-        <v>30.1083</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>257765.3388000001</v>
+        <v>-3825.911699999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1993</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +3368,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="C81" t="n">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="D81" t="n">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="E81" t="n">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="F81" t="n">
-        <v>306.04</v>
+        <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>257765.3388000001</v>
+        <v>-3826.011699999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1991</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3748,32 +3410,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="C82" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="E82" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>64.7</v>
       </c>
       <c r="G82" t="n">
-        <v>257765.2388000001</v>
+        <v>-3761.311699999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1990</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3784,32 +3452,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="C83" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="D83" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="E83" t="n">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1</v>
+        <v>16.8551</v>
       </c>
       <c r="G83" t="n">
-        <v>257765.3388000001</v>
+        <v>-3778.1668</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2010</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3820,32 +3494,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="C84" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="E84" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F84" t="n">
-        <v>16.9515</v>
+        <v>280000</v>
       </c>
       <c r="G84" t="n">
-        <v>257748.3873000001</v>
+        <v>276221.8332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1993</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3856,32 +3536,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="C85" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D85" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="E85" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1</v>
+        <v>60000</v>
       </c>
       <c r="G85" t="n">
-        <v>257748.4873000001</v>
+        <v>276221.8332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +3576,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1995</v>
+        <v>2024</v>
       </c>
       <c r="C86" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="D86" t="n">
-        <v>1995</v>
+        <v>2024</v>
       </c>
       <c r="E86" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="F86" t="n">
-        <v>149.768</v>
+        <v>441.9113</v>
       </c>
       <c r="G86" t="n">
-        <v>257598.7193000001</v>
+        <v>275779.9219</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3917,7 +3601,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3616,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="C87" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="D87" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E87" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="F87" t="n">
-        <v>36.6586</v>
+        <v>84.06140000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>257598.7193000001</v>
+        <v>275863.9833</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3953,7 +3641,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +3656,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C88" t="n">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="D88" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="E88" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="F88" t="n">
-        <v>280.52</v>
+        <v>36.73</v>
       </c>
       <c r="G88" t="n">
-        <v>257879.2393000001</v>
+        <v>275827.2533</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3989,7 +3681,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +3696,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C89" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="D89" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="E89" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="F89" t="n">
-        <v>59.7963</v>
+        <v>1613.6082</v>
       </c>
       <c r="G89" t="n">
-        <v>257819.4430000001</v>
+        <v>275827.2533</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4025,7 +3721,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3736,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="C90" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="D90" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="E90" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="F90" t="n">
-        <v>192.9122</v>
+        <v>513.7182</v>
       </c>
       <c r="G90" t="n">
-        <v>257819.4430000001</v>
+        <v>275313.5351</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4061,7 +3761,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +3776,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="C91" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="D91" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="E91" t="n">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0001</v>
+        <v>1126.2884</v>
       </c>
       <c r="G91" t="n">
-        <v>257819.4430000001</v>
+        <v>275313.5351</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4097,7 +3801,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +3816,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2016</v>
+        <v>1973</v>
       </c>
       <c r="C92" t="n">
-        <v>2016</v>
+        <v>1973</v>
       </c>
       <c r="D92" t="n">
-        <v>2016</v>
+        <v>1973</v>
       </c>
       <c r="E92" t="n">
-        <v>2016</v>
+        <v>1973</v>
       </c>
       <c r="F92" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>257819.5630000001</v>
+        <v>275313.4351000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4133,7 +3841,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +3856,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2007</v>
+        <v>1974</v>
       </c>
       <c r="C93" t="n">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="D93" t="n">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="E93" t="n">
-        <v>2007</v>
+        <v>1974</v>
       </c>
       <c r="F93" t="n">
-        <v>118.8097</v>
+        <v>771</v>
       </c>
       <c r="G93" t="n">
-        <v>257700.7533000001</v>
+        <v>276084.4351000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4169,7 +3881,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +3896,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2011</v>
+        <v>1979</v>
       </c>
       <c r="C94" t="n">
-        <v>2012</v>
+        <v>1979</v>
       </c>
       <c r="D94" t="n">
-        <v>2012</v>
+        <v>1979</v>
       </c>
       <c r="E94" t="n">
-        <v>2011</v>
+        <v>1979</v>
       </c>
       <c r="F94" t="n">
-        <v>1254.0603</v>
+        <v>0.1</v>
       </c>
       <c r="G94" t="n">
-        <v>258954.8136000001</v>
+        <v>276084.3351000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4205,7 +3921,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +3936,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="C95" t="n">
-        <v>2006</v>
+        <v>1973</v>
       </c>
       <c r="D95" t="n">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="E95" t="n">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="F95" t="n">
-        <v>682.5657</v>
+        <v>8662.9648</v>
       </c>
       <c r="G95" t="n">
-        <v>258272.2479000001</v>
+        <v>267421.3703000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4241,7 +3961,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +3976,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2006</v>
+        <v>1975</v>
       </c>
       <c r="C96" t="n">
-        <v>2006</v>
+        <v>1975</v>
       </c>
       <c r="D96" t="n">
-        <v>2006</v>
+        <v>1975</v>
       </c>
       <c r="E96" t="n">
-        <v>2006</v>
+        <v>1975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0001</v>
+        <v>46.58</v>
       </c>
       <c r="G96" t="n">
-        <v>258272.2479000001</v>
+        <v>267467.9503000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4277,7 +4001,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4016,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="C97" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="D97" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="E97" t="n">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>22.6533</v>
       </c>
       <c r="G97" t="n">
-        <v>258272.3479000001</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4313,7 +4041,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4056,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2001</v>
+        <v>1970</v>
       </c>
       <c r="C98" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="D98" t="n">
-        <v>2001</v>
+        <v>1970</v>
       </c>
       <c r="E98" t="n">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="F98" t="n">
-        <v>35.1966</v>
+        <v>8.705399999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>258237.1513000001</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4349,7 +4081,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +4096,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2012</v>
+        <v>1970</v>
       </c>
       <c r="C99" t="n">
-        <v>2012</v>
+        <v>1970</v>
       </c>
       <c r="D99" t="n">
-        <v>2012</v>
+        <v>1970</v>
       </c>
       <c r="E99" t="n">
-        <v>2009</v>
+        <v>1970</v>
       </c>
       <c r="F99" t="n">
-        <v>271.11</v>
+        <v>31.3003</v>
       </c>
       <c r="G99" t="n">
-        <v>258508.2613000001</v>
+        <v>267445.2970000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4385,7 +4121,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4136,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2002</v>
+        <v>1965</v>
       </c>
       <c r="C100" t="n">
-        <v>2001</v>
+        <v>1965</v>
       </c>
       <c r="D100" t="n">
-        <v>2002</v>
+        <v>1965</v>
       </c>
       <c r="E100" t="n">
-        <v>2001</v>
+        <v>1965</v>
       </c>
       <c r="F100" t="n">
-        <v>23.5844</v>
+        <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>258484.6769000001</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4421,7 +4161,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4432,32 +4176,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="C101" t="n">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="D101" t="n">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="E101" t="n">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="F101" t="n">
-        <v>29.9432</v>
+        <v>12.4688</v>
       </c>
       <c r="G101" t="n">
-        <v>258454.7337000001</v>
+        <v>267445.1970000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1965</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4468,32 +4218,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="C102" t="n">
-        <v>2016</v>
+        <v>1971</v>
       </c>
       <c r="D102" t="n">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="E102" t="n">
-        <v>2016</v>
+        <v>1971</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1</v>
+        <v>106.0358</v>
       </c>
       <c r="G102" t="n">
-        <v>258454.8337000001</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1965</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4504,32 +4260,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="C103" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="D103" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="E103" t="n">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="F103" t="n">
-        <v>33.559</v>
+        <v>63.44</v>
       </c>
       <c r="G103" t="n">
-        <v>258421.2747000001</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1971</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4540,32 +4302,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="C104" t="n">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="D104" t="n">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="E104" t="n">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>258421.3747000001</v>
+        <v>267551.1328000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1971</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4576,32 +4344,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="C105" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="D105" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="E105" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="F105" t="n">
-        <v>18.3752</v>
+        <v>0.1</v>
       </c>
       <c r="G105" t="n">
-        <v>258402.9995000001</v>
+        <v>267551.2328000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1966</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4612,32 +4386,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="C106" t="n">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="D106" t="n">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E106" t="n">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>258403.0995000001</v>
+        <v>267551.3328000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1972</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4648,32 +4428,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="C107" t="n">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D107" t="n">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="E107" t="n">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="F107" t="n">
-        <v>18.6093</v>
+        <v>80.2941</v>
       </c>
       <c r="G107" t="n">
-        <v>258384.4902000001</v>
+        <v>267471.0387000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4684,32 +4468,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="C108" t="n">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="D108" t="n">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="E108" t="n">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="F108" t="n">
         <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>258384.5902000001</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4720,32 +4508,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="C109" t="n">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="D109" t="n">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="E109" t="n">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="F109" t="n">
-        <v>76.5899</v>
+        <v>321.2942</v>
       </c>
       <c r="G109" t="n">
-        <v>258308.0003000001</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4756,32 +4548,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C110" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="D110" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E110" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="F110" t="n">
-        <v>220</v>
+        <v>97.82989999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>258088.0003000001</v>
+        <v>267471.1387000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4807,17 +4603,21 @@
         <v>0.1</v>
       </c>
       <c r="G111" t="n">
-        <v>258088.1003000001</v>
+        <v>267471.2387</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4828,22 +4628,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C112" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="D112" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E112" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>258088.2003000001</v>
+        <v>267371.2387</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4853,7 +4653,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +4668,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="C113" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D113" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="E113" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F113" t="n">
-        <v>176.62</v>
+        <v>2299.9306</v>
       </c>
       <c r="G113" t="n">
-        <v>257911.5803000001</v>
+        <v>265071.3081</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4889,7 +4693,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4900,22 +4708,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="C114" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="D114" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E114" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>17.6</v>
       </c>
       <c r="G114" t="n">
-        <v>257911.6803000001</v>
+        <v>265088.9081</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4925,7 +4733,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4936,36 +4748,2738 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C115" t="n">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="D115" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="E115" t="n">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="F115" t="n">
-        <v>14.3246</v>
+        <v>393.2961</v>
       </c>
       <c r="G115" t="n">
-        <v>257897.3557000001</v>
+        <v>264695.612</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F116" t="n">
+        <v>169.8745</v>
+      </c>
+      <c r="G116" t="n">
+        <v>264695.612</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G117" t="n">
+        <v>264695.722</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>264695.832</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>955</v>
+      </c>
+      <c r="G119" t="n">
+        <v>265650.832</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F120" t="n">
+        <v>199.3106</v>
+      </c>
+      <c r="G120" t="n">
+        <v>265850.1426</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F121" t="n">
+        <v>160</v>
+      </c>
+      <c r="G121" t="n">
+        <v>266010.1426</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>266010.2426</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F123" t="n">
+        <v>52.1796</v>
+      </c>
+      <c r="G123" t="n">
+        <v>265958.063</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F124" t="n">
+        <v>257.575</v>
+      </c>
+      <c r="G124" t="n">
+        <v>266215.638</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F125" t="n">
+        <v>276.7652</v>
+      </c>
+      <c r="G125" t="n">
+        <v>266215.638</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F126" t="n">
+        <v>57.228</v>
+      </c>
+      <c r="G126" t="n">
+        <v>266215.638</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>266215.5380000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G128" t="n">
+        <v>266215.648</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>266215.5480000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F130" t="n">
+        <v>387.7672</v>
+      </c>
+      <c r="G130" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F131" t="n">
+        <v>89574.5232</v>
+      </c>
+      <c r="G131" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F132" t="n">
+        <v>65920.624</v>
+      </c>
+      <c r="G132" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>25310.412</v>
+      </c>
+      <c r="G133" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>79206.4752</v>
+      </c>
+      <c r="G134" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F135" t="n">
+        <v>79802.0096</v>
+      </c>
+      <c r="G135" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F136" t="n">
+        <v>78823.0252</v>
+      </c>
+      <c r="G136" t="n">
+        <v>266603.3152000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2056</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9311.3938</v>
+      </c>
+      <c r="G137" t="n">
+        <v>257291.9214000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>257292.0214000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F139" t="n">
+        <v>114.641</v>
+      </c>
+      <c r="G139" t="n">
+        <v>257177.3804000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F140" t="n">
+        <v>58.0102</v>
+      </c>
+      <c r="G140" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F141" t="n">
+        <v>85.79179999999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F142" t="n">
+        <v>271.61</v>
+      </c>
+      <c r="G142" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F143" t="n">
+        <v>340</v>
+      </c>
+      <c r="G143" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F144" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F145" t="n">
+        <v>77.37</v>
+      </c>
+      <c r="G145" t="n">
+        <v>257235.3906000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F146" t="n">
+        <v>62.7899</v>
+      </c>
+      <c r="G146" t="n">
+        <v>257298.1805000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F147" t="n">
+        <v>68.66</v>
+      </c>
+      <c r="G147" t="n">
+        <v>257229.5205000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F148" t="n">
+        <v>168.6433</v>
+      </c>
+      <c r="G148" t="n">
+        <v>257398.1638000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2037</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2052</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F149" t="n">
+        <v>397.1833</v>
+      </c>
+      <c r="G149" t="n">
+        <v>257795.3471000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2065</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2065</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2065</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>257795.4471000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F151" t="n">
+        <v>30.1083</v>
+      </c>
+      <c r="G151" t="n">
+        <v>257765.3388000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F152" t="n">
+        <v>306.04</v>
+      </c>
+      <c r="G152" t="n">
+        <v>257765.3388000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>257765.2388000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>257765.3388000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16.9515</v>
+      </c>
+      <c r="G155" t="n">
+        <v>257748.3873000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>257748.4873000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F157" t="n">
+        <v>149.768</v>
+      </c>
+      <c r="G157" t="n">
+        <v>257598.7193000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F158" t="n">
+        <v>36.6586</v>
+      </c>
+      <c r="G158" t="n">
+        <v>257598.7193000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F159" t="n">
+        <v>280.52</v>
+      </c>
+      <c r="G159" t="n">
+        <v>257879.2393000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F160" t="n">
+        <v>59.7963</v>
+      </c>
+      <c r="G160" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F161" t="n">
+        <v>192.9122</v>
+      </c>
+      <c r="G161" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>257819.4430000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G163" t="n">
+        <v>257819.5630000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F164" t="n">
+        <v>118.8097</v>
+      </c>
+      <c r="G164" t="n">
+        <v>257700.7533000001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1254.0603</v>
+      </c>
+      <c r="G165" t="n">
+        <v>258954.8136000001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F166" t="n">
+        <v>682.5657</v>
+      </c>
+      <c r="G166" t="n">
+        <v>258272.2479000001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>258272.2479000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>258272.3479000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F169" t="n">
+        <v>35.1966</v>
+      </c>
+      <c r="G169" t="n">
+        <v>258237.1513000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F170" t="n">
+        <v>271.11</v>
+      </c>
+      <c r="G170" t="n">
+        <v>258508.2613000001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>23.5844</v>
+      </c>
+      <c r="G171" t="n">
+        <v>258484.6769000001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29.9432</v>
+      </c>
+      <c r="G172" t="n">
+        <v>258454.7337000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>258454.8337000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>33.559</v>
+      </c>
+      <c r="G174" t="n">
+        <v>258421.2747000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>258421.3747000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18.3752</v>
+      </c>
+      <c r="G176" t="n">
+        <v>258402.9995000001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>258403.0995000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18.6093</v>
+      </c>
+      <c r="G178" t="n">
+        <v>258384.4902000001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>258384.5902000001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F180" t="n">
+        <v>76.5899</v>
+      </c>
+      <c r="G180" t="n">
+        <v>258308.0003000001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1977</v>
+      </c>
+      <c r="F181" t="n">
+        <v>220</v>
+      </c>
+      <c r="G181" t="n">
+        <v>258088.0003000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>258088.1003000001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>258088.2003000001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F184" t="n">
+        <v>176.62</v>
+      </c>
+      <c r="G184" t="n">
+        <v>257911.5803000001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>257911.6803000001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.3246</v>
+      </c>
+      <c r="G186" t="n">
+        <v>257897.3557000001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,24 +2563,15 @@
         <v>-3805.6846</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2804,20 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2842,24 +2629,15 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2884,24 +2662,15 @@
         <v>-3782.897199999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,24 +2695,15 @@
         <v>-3742.897199999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2970,20 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3008,24 +2761,15 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3050,24 +2794,15 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3092,24 +2827,15 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3134,24 +2860,15 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3176,24 +2893,15 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3218,24 +2926,19 @@
         <v>-3654.598799999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="J77" t="n">
         <v>2007</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3260,24 +2963,21 @@
         <v>-3719.298799999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3302,24 +3002,23 @@
         <v>-3825.811699999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="J79" t="n">
-        <v>2003</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3344,24 +3043,21 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3386,24 +3082,23 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="J81" t="n">
-        <v>1991</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3428,24 +3123,21 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>1990</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3470,24 +3162,21 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>2010</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3512,24 +3201,21 @@
         <v>276221.8332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3556,20 +3242,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3596,20 +3281,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3636,20 +3320,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3676,20 +3359,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3716,20 +3398,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3756,20 +3437,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3796,20 +3476,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3836,20 +3515,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3876,20 +3554,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3916,20 +3593,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3956,20 +3632,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3996,20 +3671,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4036,20 +3710,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4076,20 +3749,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4116,20 +3788,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4156,20 +3827,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4194,24 +3864,23 @@
         <v>267445.1970000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="J101" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4236,24 +3905,23 @@
         <v>267551.2328000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="J102" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4278,24 +3946,23 @@
         <v>267551.2328000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1971</v>
       </c>
       <c r="J103" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4320,24 +3987,21 @@
         <v>267551.1328000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4362,24 +4026,21 @@
         <v>267551.2328000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1966</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4404,24 +4065,21 @@
         <v>267551.3328000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+        <v>2007</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4448,20 +4106,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4488,20 +4145,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4526,22 +4182,23 @@
         <v>267471.1387000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>1982</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4566,22 +4223,23 @@
         <v>267471.1387000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+        <v>1982</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4608,20 +4266,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4648,20 +4305,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4688,20 +4344,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4728,20 +4383,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4768,20 +4422,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,20 +4461,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4846,22 +4498,23 @@
         <v>264695.722</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+        <v>1985</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4888,20 +4541,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4928,20 +4580,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4968,20 +4619,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5008,20 +4658,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5048,20 +4697,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5088,20 +4736,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5128,20 +4775,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5168,20 +4814,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5208,20 +4853,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5246,22 +4890,21 @@
         <v>266215.5380000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>0.9905156950672646</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5286,22 +4929,15 @@
         <v>266215.648</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5326,22 +4962,15 @@
         <v>266215.5480000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5366,22 +4995,15 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5406,22 +5028,15 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5448,20 +5063,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5488,20 +5096,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5526,22 +5127,15 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5568,20 +5162,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5606,22 +5193,15 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5646,22 +5226,15 @@
         <v>257291.9214000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5686,22 +5259,15 @@
         <v>257292.0214000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5726,22 +5292,15 @@
         <v>257177.3804000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5768,20 +5327,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5806,22 +5358,15 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5846,22 +5391,15 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5886,22 +5424,15 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5926,22 +5457,15 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5968,20 +5492,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6006,22 +5523,15 @@
         <v>257298.1805000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6048,20 +5558,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6086,22 +5589,19 @@
         <v>257398.1638000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>2013</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2013</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6126,22 +5626,21 @@
         <v>257795.3471000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6166,22 +5665,21 @@
         <v>257795.4471000001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6206,20 +5704,21 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6244,18 +5743,21 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6280,18 +5782,21 @@
         <v>257765.2388000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6316,18 +5821,21 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6352,18 +5860,21 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6388,18 +5899,21 @@
         <v>257748.4873000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6424,18 +5938,21 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6460,18 +5977,21 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6498,16 +6018,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6534,16 +6057,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6570,16 +6096,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6606,16 +6135,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6642,16 +6174,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6678,16 +6213,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6712,18 +6250,21 @@
         <v>258954.8136000001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>0.9945032290114257</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6748,18 +6289,15 @@
         <v>258272.2479000001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6786,16 +6324,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6822,16 +6357,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6858,16 +6390,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6894,16 +6423,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6928,18 +6454,15 @@
         <v>258484.6769000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6964,18 +6487,15 @@
         <v>258454.7337000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7000,18 +6520,15 @@
         <v>258454.8337000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7036,18 +6553,15 @@
         <v>258421.2747000001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7072,18 +6586,15 @@
         <v>258421.3747000001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7108,18 +6619,15 @@
         <v>258402.9995000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7144,18 +6652,15 @@
         <v>258403.0995000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7180,18 +6685,15 @@
         <v>258384.4902000001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7218,16 +6720,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7254,16 +6753,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7290,16 +6786,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7326,16 +6819,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7362,16 +6852,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7398,16 +6885,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7434,16 +6918,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7470,18 +6951,15 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>-2047.7055</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2041</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-2047.7055</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-2047.7055</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-2047.7055</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2041</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-2047.7055</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-1738.1856</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1736,19 @@
         <v>-3205.669100000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2284,19 @@
         <v>-3884.920400000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2325,19 @@
         <v>-4229.920400000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2366,19 @@
         <v>-4229.820400000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2407,19 @@
         <v>-4248.225</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2448,19 @@
         <v>-4131.555</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2489,19 @@
         <v>-4131.455</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2530,19 @@
         <v>-4631.455</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2571,19 @@
         <v>-4254.2268</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2612,19 @@
         <v>-4396.9775</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2653,19 @@
         <v>-4396.9775</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2694,19 @@
         <v>-4415.1275</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2735,19 @@
         <v>-3269.7275</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2776,19 @@
         <v>-3229.7275</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2817,19 @@
         <v>-3598.995399999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2858,19 @@
         <v>-3568.463299999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2899,19 @@
         <v>-3604.0634</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2940,19 @@
         <v>-3805.6846</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2981,19 @@
         <v>-3805.6846</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3022,19 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3063,19 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3104,19 @@
         <v>-3782.897199999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3145,19 @@
         <v>-3742.897199999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3189,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3225,19 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3266,19 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3307,19 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3348,19 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3389,19 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,15 +3430,19 @@
         <v>-3654.598799999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>2007</v>
       </c>
       <c r="J77" t="n">
-        <v>2007</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>2041</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,15 +3471,17 @@
         <v>-3719.298799999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2015</v>
+      </c>
       <c r="J78" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3002,17 +3512,17 @@
         <v>-3825.811699999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2003</v>
       </c>
       <c r="J79" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3043,11 +3553,13 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1993</v>
+      </c>
       <c r="J80" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3082,13 +3594,13 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1991</v>
       </c>
       <c r="J81" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3123,11 +3635,13 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1990</v>
+      </c>
       <c r="J82" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3162,11 +3676,13 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2010</v>
+      </c>
       <c r="J83" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3201,11 +3717,13 @@
         <v>276221.8332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1993</v>
+      </c>
       <c r="J84" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3244,7 +3762,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3283,7 +3801,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3322,7 +3840,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3361,7 +3879,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3400,7 +3918,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3439,7 +3957,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3478,7 +3996,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3517,7 +4035,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3556,7 +4074,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3595,7 +4113,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3634,7 +4152,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3673,7 +4191,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3712,7 +4230,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3751,7 +4269,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3790,7 +4308,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3829,7 +4347,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3864,13 +4382,11 @@
         <v>267445.1970000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3905,13 +4421,11 @@
         <v>267551.2328000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3946,13 +4460,11 @@
         <v>267551.2328000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3991,7 +4503,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4030,7 +4542,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4069,7 +4581,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4108,7 +4620,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4147,7 +4659,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4182,13 +4694,11 @@
         <v>267471.1387000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4223,13 +4733,11 @@
         <v>267471.1387000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4268,7 +4776,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4307,7 +4815,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4346,7 +4854,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4385,7 +4893,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4424,7 +4932,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4463,7 +4971,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4498,13 +5006,11 @@
         <v>264695.722</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4543,7 +5049,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4582,7 +5088,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4621,7 +5127,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4660,7 +5166,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4699,7 +5205,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4738,7 +5244,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4777,7 +5283,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4816,7 +5322,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4855,7 +5361,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4890,19 +5396,19 @@
         <v>266215.5380000001</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>0.9905156950672646</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
     </row>
@@ -4929,11 +5435,17 @@
         <v>266215.648</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +5474,17 @@
         <v>266215.5480000001</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +5513,17 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5028,11 +5552,17 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5594,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5094,13 +5630,19 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>0.9783414992650662</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
@@ -5127,7 +5669,7 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5160,7 +5702,7 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5193,7 +5735,7 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5226,7 +5768,7 @@
         <v>257291.9214000001</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5259,7 +5801,7 @@
         <v>257292.0214000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5292,7 +5834,7 @@
         <v>257177.3804000001</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5325,7 +5867,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5358,7 +5900,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5391,7 +5933,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5424,7 +5966,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5457,7 +5999,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5490,7 +6032,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5523,7 +6065,7 @@
         <v>257298.1805000001</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5556,7 +6098,7 @@
         <v>257229.5205000001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5591,12 +6133,8 @@
       <c r="H148" t="n">
         <v>2</v>
       </c>
-      <c r="I148" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2013</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5626,17 +6164,11 @@
         <v>257795.3471000001</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5665,17 +6197,11 @@
         <v>257795.4471000001</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5704,17 +6230,11 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5743,17 +6263,11 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5782,17 +6296,11 @@
         <v>257765.2388000001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5821,17 +6329,11 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5860,17 +6362,11 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5899,17 +6395,11 @@
         <v>257748.4873000001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5938,17 +6428,11 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5977,17 +6461,11 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6016,17 +6494,11 @@
         <v>257879.2393000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +6527,11 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +6560,11 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6133,17 +6593,11 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6172,17 +6626,11 @@
         <v>257819.5630000001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6211,17 +6659,11 @@
         <v>257700.7533000001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6250,19 +6692,13 @@
         <v>258954.8136000001</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.9945032290114257</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
     </row>
@@ -6289,7 +6725,7 @@
         <v>258272.2479000001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6322,7 +6758,7 @@
         <v>258272.2479000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6355,7 +6791,7 @@
         <v>258272.3479000001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6388,7 +6824,7 @@
         <v>258237.1513000001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6421,7 +6857,7 @@
         <v>258508.2613000001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6454,7 +6890,7 @@
         <v>258484.6769000001</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6487,7 +6923,7 @@
         <v>258454.7337000001</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6520,7 +6956,7 @@
         <v>258454.8337000001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6553,7 +6989,7 @@
         <v>258421.2747000001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6586,7 +7022,7 @@
         <v>258421.3747000001</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6619,7 +7055,7 @@
         <v>258402.9995000001</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6652,7 +7088,7 @@
         <v>258403.0995000001</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6685,7 +7121,7 @@
         <v>258384.4902000001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6883,7 +7319,7 @@
         <v>257911.5803000001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6916,7 +7352,7 @@
         <v>257911.6803000001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6960,6 +7396,6 @@
       <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-2047.7055</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2047.7055</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2047.7055</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2047.7055</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-2047.7055</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-1738.1856</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1736,19 +1540,11 @@
         <v>-3205.669100000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1858,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1897,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1936,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2011,17 +1771,15 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2040</v>
+      </c>
       <c r="J42" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +1812,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2093,11 +1851,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2128,17 +1886,15 @@
         <v>-3583.448500000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2042</v>
+      </c>
       <c r="J45" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2042</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2171,11 +1927,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2210,11 +1966,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2249,7 +2005,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2290,7 +2046,7 @@
         <v>2016</v>
       </c>
       <c r="J49" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2325,13 +2081,11 @@
         <v>-4229.920400000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2366,13 +2120,11 @@
         <v>-4229.820400000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2407,13 +2159,11 @@
         <v>-4248.225</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2448,13 +2198,11 @@
         <v>-4131.555</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2489,13 +2237,11 @@
         <v>-4131.455</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2530,13 +2276,11 @@
         <v>-4631.455</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2571,13 +2315,11 @@
         <v>-4254.2268</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2612,13 +2354,11 @@
         <v>-4396.9775</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2653,13 +2393,11 @@
         <v>-4396.9775</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2694,13 +2432,11 @@
         <v>-4415.1275</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2735,13 +2471,11 @@
         <v>-3269.7275</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2776,13 +2510,11 @@
         <v>-3229.7275</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2817,13 +2549,11 @@
         <v>-3598.995399999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2858,13 +2588,11 @@
         <v>-3568.463299999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2899,13 +2627,11 @@
         <v>-3604.0634</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2940,13 +2666,11 @@
         <v>-3805.6846</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2981,13 +2705,11 @@
         <v>-3805.6846</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3022,13 +2744,11 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3063,13 +2783,11 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3104,13 +2822,11 @@
         <v>-3782.897199999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3145,13 +2861,11 @@
         <v>-3742.897199999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3190,7 +2904,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3225,13 +2939,11 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3266,13 +2978,11 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3307,13 +3017,11 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3348,13 +3056,11 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3389,13 +3095,11 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3430,13 +3134,11 @@
         <v>-3654.598799999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3471,13 +3173,11 @@
         <v>-3719.298799999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3512,13 +3212,11 @@
         <v>-3825.811699999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3553,13 +3251,11 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3594,13 +3290,11 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3635,13 +3329,11 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3676,13 +3368,11 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3717,13 +3407,11 @@
         <v>276221.8332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3762,7 +3450,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3801,7 +3489,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3840,7 +3528,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3879,7 +3567,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3918,7 +3606,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3957,7 +3645,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3996,7 +3684,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4035,7 +3723,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4074,7 +3762,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4113,7 +3801,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4152,7 +3840,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4191,7 +3879,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4230,7 +3918,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4269,7 +3957,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4308,7 +3996,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4347,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4386,7 +4074,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4425,7 +4113,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4464,7 +4152,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4503,7 +4191,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4542,7 +4230,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4581,7 +4269,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4620,7 +4308,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4659,7 +4347,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4698,7 +4386,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4737,7 +4425,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4776,7 +4464,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4815,7 +4503,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4854,7 +4542,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4893,7 +4581,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4932,7 +4620,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4971,7 +4659,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5010,7 +4698,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5049,7 +4737,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5088,7 +4776,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5127,7 +4815,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5166,7 +4854,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5205,7 +4893,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5244,7 +4932,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5283,7 +4971,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5322,7 +5010,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5361,7 +5049,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5400,7 +5088,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5439,7 +5127,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5478,7 +5166,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5517,7 +5205,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5556,7 +5244,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5595,7 +5283,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5630,19 +5318,19 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>0.9783414992650662</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
@@ -5669,11 +5357,17 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5396,17 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5435,17 @@
         <v>266603.3152000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5474,17 @@
         <v>257291.9214000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5513,17 @@
         <v>257292.0214000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5552,17 @@
         <v>257177.3804000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5867,11 +5591,17 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5903,10 +5633,16 @@
         <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0.9807982370225269</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5999,7 +5735,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6362,7 +6098,7 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6428,7 +6164,7 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6461,7 +6197,7 @@
         <v>257598.7193000001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6494,7 +6230,7 @@
         <v>257879.2393000001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6527,7 +6263,7 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6560,7 +6296,7 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6593,7 +6329,7 @@
         <v>257819.4430000001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6626,7 +6362,7 @@
         <v>257819.5630000001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6659,7 +6395,7 @@
         <v>257700.7533000001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6692,7 +6428,7 @@
         <v>258954.8136000001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6725,7 +6461,7 @@
         <v>258272.2479000001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6758,7 +6494,7 @@
         <v>258272.2479000001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6791,7 +6527,7 @@
         <v>258272.3479000001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6824,7 +6560,7 @@
         <v>258237.1513000001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6857,7 +6593,7 @@
         <v>258508.2613000001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6890,7 +6626,7 @@
         <v>258484.6769000001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6923,7 +6659,7 @@
         <v>258454.7337000001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6956,7 +6692,7 @@
         <v>258454.8337000001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6989,7 +6725,7 @@
         <v>258421.2747000001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7022,7 +6758,7 @@
         <v>258421.3747000001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7055,7 +6791,7 @@
         <v>258402.9995000001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7088,7 +6824,7 @@
         <v>258403.0995000001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7121,7 +6857,7 @@
         <v>258384.4902000001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7319,7 +7055,7 @@
         <v>257911.5803000001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7352,7 +7088,7 @@
         <v>257911.6803000001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7396,6 +7132,6 @@
       <c r="M186" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest HC.xlsx
+++ b/BackTest/2019-11-01 BackTest HC.xlsx
@@ -583,10 +583,14 @@
         <v>-2047.7055</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2041</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +623,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +662,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +701,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +737,19 @@
         <v>-2241.5767</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +781,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +820,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +859,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +898,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +937,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +976,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1015,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1054,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1093,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1132,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1171,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1210,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1249,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1288,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1327,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1366,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1405,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1444,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1483,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1522,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1561,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1600,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1639,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1678,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1717,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1795,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,13 +1831,19 @@
         <v>-3471.469100000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1672,7 +1870,7 @@
         <v>-3471.369100000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1903,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1936,7 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,14 +1969,10 @@
         <v>-3844.581200000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2040</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2040</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1808,17 +2002,11 @@
         <v>-3565.581200000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2040</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1847,17 +2035,11 @@
         <v>-3922.927600000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2040</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +2068,10 @@
         <v>-3583.448500000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2042</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2042</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1923,17 +2101,11 @@
         <v>-3601.606300000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1962,17 +2134,11 @@
         <v>-3812.370400000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2001,17 +2167,11 @@
         <v>-3885.020400000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2040,19 +2200,11 @@
         <v>-3884.920400000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2016</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +2233,15 @@
         <v>-4229.920400000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2120,12 +2272,12 @@
         <v>-4229.820400000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,12 +2311,12 @@
         <v>-4248.225</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,12 +2350,12 @@
         <v>-4131.555</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,12 +2389,10 @@
         <v>-4131.455</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,12 +2426,10 @@
         <v>-4631.455</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2315,12 +2463,12 @@
         <v>-4254.2268</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,12 +2502,10 @@
         <v>-4396.9775</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,12 +2539,12 @@
         <v>-4396.9775</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,12 +2578,12 @@
         <v>-4415.1275</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,12 +2617,12 @@
         <v>-3269.7275</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,12 +2656,12 @@
         <v>-3229.7275</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,20 +2695,16 @@
         <v>-3598.995399999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2042</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2591,14 +2733,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2763,15 @@
         <v>-3604.0634</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2013</v>
+      </c>
       <c r="J64" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2666,15 +2800,17 @@
         <v>-3805.6846</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2010</v>
+      </c>
       <c r="J65" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2705,11 +2841,13 @@
         <v>-3805.6846</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2007</v>
+      </c>
       <c r="J66" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2744,11 +2882,13 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2007</v>
+      </c>
       <c r="J67" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2783,11 +2923,13 @@
         <v>-3772.897199999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2008</v>
+      </c>
       <c r="J68" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2822,11 +2964,13 @@
         <v>-3782.897199999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2008</v>
+      </c>
       <c r="J69" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2861,11 +3005,13 @@
         <v>-3742.897199999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2007</v>
+      </c>
       <c r="J70" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2900,11 +3046,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2015</v>
+      </c>
       <c r="J71" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2939,11 +3087,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2007</v>
+      </c>
       <c r="J72" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2978,11 +3128,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2007</v>
+      </c>
       <c r="J73" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3017,11 +3169,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2007</v>
+      </c>
       <c r="J74" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3056,11 +3210,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2007</v>
+      </c>
       <c r="J75" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3095,11 +3251,13 @@
         <v>-3764.221999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2007</v>
+      </c>
       <c r="J76" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3134,11 +3292,13 @@
         <v>-3654.598799999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2007</v>
+      </c>
       <c r="J77" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3173,11 +3333,13 @@
         <v>-3719.298799999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2015</v>
+      </c>
       <c r="J78" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3212,11 +3374,13 @@
         <v>-3825.811699999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2003</v>
+      </c>
       <c r="J79" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3251,11 +3415,13 @@
         <v>-3825.911699999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1993</v>
+      </c>
       <c r="J80" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3290,11 +3456,13 @@
         <v>-3826.011699999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1991</v>
+      </c>
       <c r="J81" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3329,11 +3497,13 @@
         <v>-3761.311699999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1990</v>
+      </c>
       <c r="J82" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3368,11 +3538,13 @@
         <v>-3778.1668</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2010</v>
+      </c>
       <c r="J83" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3407,11 +3579,13 @@
         <v>276221.8332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1993</v>
+      </c>
       <c r="J84" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3446,19 +3620,19 @@
         <v>276221.8332</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>2042</v>
+        <v>2013</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0.9959935419771485</v>
       </c>
       <c r="M85" t="inlineStr"/>
     </row>
@@ -3485,17 +3659,11 @@
         <v>275779.9219</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3524,17 +3692,11 @@
         <v>275863.9833</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3563,17 +3725,11 @@
         <v>275827.2533</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3761,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3794,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3827,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3860,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3893,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3926,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3959,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3878,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +4025,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +4058,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +4091,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4034,14 +4124,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4073,14 +4157,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +4190,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +4223,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4190,14 +4256,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +4289,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +4322,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +4355,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +4388,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +4421,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +4454,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4463,14 +4487,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +4520,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4541,14 +4553,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4580,14 +4586,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +4619,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +4652,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4697,14 +4685,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4736,14 +4718,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4775,14 +4751,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4814,14 +4784,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4853,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4892,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4970,14 +4916,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5009,14 +4949,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4982,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +5015,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +5048,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +5081,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +5114,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5180,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +5213,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +5246,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +5279,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5438,14 +5312,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5477,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +5378,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5411,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +5444,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5630,19 +5474,13 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.9807982370225269</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5669,7 +5507,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5702,7 +5540,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5768,7 +5606,7 @@
         <v>257235.3906000001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5801,7 +5639,7 @@
         <v>257298.1805000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5834,7 +5672,7 @@
         <v>257229.5205000001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5867,7 +5705,7 @@
         <v>257398.1638000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5900,7 +5738,7 @@
         <v>257795.3471000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5933,7 +5771,7 @@
         <v>257795.4471000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6032,7 +5870,7 @@
         <v>257765.2388000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6065,7 +5903,7 @@
         <v>257765.3388000001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6098,7 +5936,7 @@
         <v>257748.3873000001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
